--- a/开发设计文档/03.测试用例/01组测试用例.xlsx
+++ b/开发设计文档/03.测试用例/01组测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qt\final_system\开发设计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qt\final_system2.0\qt1\开发设计文档\03.测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95753D57-2DEC-46D8-AF3E-39E9E2C39AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA85689-1A28-47E6-BE06-9968C6A271A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例分析" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="163">
   <si>
     <t>需求名称</t>
   </si>
@@ -229,9 +229,6 @@
     <t>s1</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
     <t>s2</t>
   </si>
   <si>
@@ -241,12 +238,6 @@
     <t>s4</t>
   </si>
   <si>
-    <t>在存在聊天内容的情况下，选择工具栏中的保存聊天内容的按钮，以文本的形式保存聊天内容，再通过按钮对聊天内容进行清空。</t>
-  </si>
-  <si>
-    <t>聊天内容能够正常保存和清空</t>
-  </si>
-  <si>
     <t>待测试</t>
   </si>
   <si>
@@ -278,14 +269,6 @@
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
-    <t>聊天</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
     <t>老师、学生与系统管理员可以对考试有不同的操作</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
@@ -294,69 +277,315 @@
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
-    <t>通过老师用户在试题编辑界面创建题目，在试卷编辑界面组合题目完成组卷，在考试控制界面发布考试与结束考试
-通过学生用户在考试界面参与考试，选择正在进行的考试并参与答题，可以在查询界面获取自己的成绩</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师支持选择题/填空题/简答题等题型创建，仅允许修改自己创建的题目， 设置考试时间、课程、总分等基本信息，操作考试表并关联课程ID，从总题库和个人收藏题库选题，操作试题组卷关联表，设置题目序号，也可以将编辑权限分享给其余老师用户；同时可以阅卷，批改学生主观题答案。
-学生仅能参加已选课程的考试，支持所有题型的输入，自动保存学生的答题记录。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <t>所有的基本表都已存在，管理员有独立的操作界面</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录管理员账号，选择不同的表可以完成增删改查，修改和增加账号时同时完成密码加密。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常操作用户无关的其他表；同时，在对用户相关表，例如学生、老师表时，对密码进行操作时在更新或者插入之后自动完成加密。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>林誊</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>程朝煜</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>李欣悦</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生在登录完成后可以使用选课功能</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生账号可以注册登录</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入学生的账号密码，进入系统可以进行选课</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生可以正常查看考试信息</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入学生的账号密码，进入系统查看已参与考试结果</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生进入界面有考参与试系统、选课系统，之后点击选课可以正常跳转</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生进入界面有考参与试系统、选课系统，之后点击查看考试可以正常跳转</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师可以查看自己教授的课程</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师账号可以注册登录</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入老师的账号密码，进入系统查看已发布的教授课程</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师进入界面有课程信息</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>考试参与</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过老师用户在试题编辑界面创建题目，在试卷编辑界面组合题目完成组卷，在考试控制界面发布考试与结束考试</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过学生用户在考试界面参与考试，选择正在进行的考试并参与答题，可以在查询界面获取自己的成绩</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生仅能参加已选课程的考试，支持所有题型的输入，自动保存学生的答题记录。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师支持选择题/填空题/简答题等题型创建，仅允许修改自己创建的题目， 设置考试时间、课程、总分等基本信息，操作考试表并关联课程ID，从总题库和个人收藏题库选题，操作试题组卷关联表，设置题目序号，也可以将编辑权限分享给其余老师用户；同时可以阅卷，批改学生主观题答案。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>题库管理</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">老师可以创建新题目 </t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师可以修改题目内容</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师账号可以正常跳转试题系统</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过老师用户在试题编辑界面创建题目。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过老师用户在试题编辑界面修改题目。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师支持选择题/填空题/简答题等题型创建。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师支持选择题/填空题/简答题等题型创建，仅允许修改自己创建的题目，。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>考试管理</t>
+  </si>
+  <si>
+    <t>考试管理</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师用户可以在考试界面创建考试</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>从题库选择题目组卷</t>
+  </si>
+  <si>
+    <t>分享考卷编辑权限</t>
+  </si>
+  <si>
+    <t>阅卷</t>
+  </si>
+  <si>
+    <t>批改主观题</t>
+  </si>
+  <si>
+    <t>成绩分析</t>
+  </si>
+  <si>
+    <t>查看考试成绩详情</t>
+  </si>
+  <si>
+    <t>查看班级成绩统计</t>
   </si>
   <si>
     <t>系统维护</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的基本表都已存在，管理员有独立的操作界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员可以登录账号，直接对所有数据进行修改</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录管理员账号，选择不同的表可以完成增删改查，修改和增加账号时同时完成密码加密。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常操作用户无关的其他表；同时，在对用户相关表，例如学生、老师表时，对密码进行操作时在更新或者插入之后自动完成加密。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>林誊</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>选课</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师授课，学生选课</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师学生的界面均添加新的功能接口</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师发布课程学习，学生可以选课，学生选择的课程和可以选择的考试相关联</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师发布课程后，学生可以查看课程详情并选课，选择课程后可以查看相应存在的考试。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>s5</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师和学生可以在公共聊天室进行对话，参与不同课程的讨论</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入课程聊天室成功，存在聊天内容</t>
+  </si>
+  <si>
+    <t>手动导入用户数据</t>
+  </si>
+  <si>
+    <t>好友管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+建立好友关系
+</t>
+  </si>
+  <si>
+    <t>聊天系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+私聊功能
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+群聊功能
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+统一信息发送
+</t>
+  </si>
+  <si>
+    <t>程管理系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+选课管理
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+课程信息管理
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+设置考试时间、课程、总分等基本信息；操作考试表并关联课程ID。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>为组卷完成的考试无法发布，只能继续修改</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>从总题库和个人收藏题库选题；操作试题组卷关联表，设置题目序号。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>组卷完成后可以选择发布考试，学生账号可以相应的查到考试信息开始考试</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账户直接管理使用表格</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>老师可以将考卷编辑权限授予其他老师； 操作试卷权限表，标记是否为创建者。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>被分享权限的老师可以正常编辑试卷</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师账号可以正常跳转阅卷界面</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>为填空题/简答题手动评分；更新学生答题记录表中的得分和批改状态。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生完成考试后提交答案，老师端可以查看答题信息并批改，所打的分数可以同步到学生端。</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -844,21 +1073,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1203,7 +1417,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,10 +1496,10 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1294,64 +1508,64 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyBorder="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyBorder="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyBorder="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0">
@@ -1363,7 +1577,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,8 +1588,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,31 +1647,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="55" applyFont="1">
@@ -1473,41 +1687,68 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="56" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="56" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="56" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="56" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1516,50 +1757,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="59">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="20% - Accent2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="20% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
@@ -1616,6 +1827,7 @@
     <cellStyle name="Warning Text" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 3" xfId="58" xr:uid="{B2C7BB9E-C456-480F-A4DB-C8A6928F9A5A}"/>
     <cellStyle name="常规_Sheet2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
     <cellStyle name="常规_Sheet3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
   </cellStyles>
@@ -1952,755 +2164,755 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.1796875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" style="28" customWidth="1"/>
-    <col min="7" max="257" width="9" style="28"/>
-    <col min="258" max="258" width="12.36328125" style="28" customWidth="1"/>
-    <col min="259" max="259" width="18.36328125" style="28" customWidth="1"/>
-    <col min="260" max="260" width="25.1796875" style="28" customWidth="1"/>
-    <col min="261" max="261" width="32.81640625" style="28" customWidth="1"/>
-    <col min="262" max="262" width="19.81640625" style="28" customWidth="1"/>
-    <col min="263" max="513" width="9" style="28"/>
-    <col min="514" max="514" width="12.36328125" style="28" customWidth="1"/>
-    <col min="515" max="515" width="18.36328125" style="28" customWidth="1"/>
-    <col min="516" max="516" width="25.1796875" style="28" customWidth="1"/>
-    <col min="517" max="517" width="32.81640625" style="28" customWidth="1"/>
-    <col min="518" max="518" width="19.81640625" style="28" customWidth="1"/>
-    <col min="519" max="769" width="9" style="28"/>
-    <col min="770" max="770" width="12.36328125" style="28" customWidth="1"/>
-    <col min="771" max="771" width="18.36328125" style="28" customWidth="1"/>
-    <col min="772" max="772" width="25.1796875" style="28" customWidth="1"/>
-    <col min="773" max="773" width="32.81640625" style="28" customWidth="1"/>
-    <col min="774" max="774" width="19.81640625" style="28" customWidth="1"/>
-    <col min="775" max="1025" width="9" style="28"/>
-    <col min="1026" max="1026" width="12.36328125" style="28" customWidth="1"/>
-    <col min="1027" max="1027" width="18.36328125" style="28" customWidth="1"/>
-    <col min="1028" max="1028" width="25.1796875" style="28" customWidth="1"/>
-    <col min="1029" max="1029" width="32.81640625" style="28" customWidth="1"/>
-    <col min="1030" max="1030" width="19.81640625" style="28" customWidth="1"/>
-    <col min="1031" max="1281" width="9" style="28"/>
-    <col min="1282" max="1282" width="12.36328125" style="28" customWidth="1"/>
-    <col min="1283" max="1283" width="18.36328125" style="28" customWidth="1"/>
-    <col min="1284" max="1284" width="25.1796875" style="28" customWidth="1"/>
-    <col min="1285" max="1285" width="32.81640625" style="28" customWidth="1"/>
-    <col min="1286" max="1286" width="19.81640625" style="28" customWidth="1"/>
-    <col min="1287" max="1537" width="9" style="28"/>
-    <col min="1538" max="1538" width="12.36328125" style="28" customWidth="1"/>
-    <col min="1539" max="1539" width="18.36328125" style="28" customWidth="1"/>
-    <col min="1540" max="1540" width="25.1796875" style="28" customWidth="1"/>
-    <col min="1541" max="1541" width="32.81640625" style="28" customWidth="1"/>
-    <col min="1542" max="1542" width="19.81640625" style="28" customWidth="1"/>
-    <col min="1543" max="1793" width="9" style="28"/>
-    <col min="1794" max="1794" width="12.36328125" style="28" customWidth="1"/>
-    <col min="1795" max="1795" width="18.36328125" style="28" customWidth="1"/>
-    <col min="1796" max="1796" width="25.1796875" style="28" customWidth="1"/>
-    <col min="1797" max="1797" width="32.81640625" style="28" customWidth="1"/>
-    <col min="1798" max="1798" width="19.81640625" style="28" customWidth="1"/>
-    <col min="1799" max="2049" width="9" style="28"/>
-    <col min="2050" max="2050" width="12.36328125" style="28" customWidth="1"/>
-    <col min="2051" max="2051" width="18.36328125" style="28" customWidth="1"/>
-    <col min="2052" max="2052" width="25.1796875" style="28" customWidth="1"/>
-    <col min="2053" max="2053" width="32.81640625" style="28" customWidth="1"/>
-    <col min="2054" max="2054" width="19.81640625" style="28" customWidth="1"/>
-    <col min="2055" max="2305" width="9" style="28"/>
-    <col min="2306" max="2306" width="12.36328125" style="28" customWidth="1"/>
-    <col min="2307" max="2307" width="18.36328125" style="28" customWidth="1"/>
-    <col min="2308" max="2308" width="25.1796875" style="28" customWidth="1"/>
-    <col min="2309" max="2309" width="32.81640625" style="28" customWidth="1"/>
-    <col min="2310" max="2310" width="19.81640625" style="28" customWidth="1"/>
-    <col min="2311" max="2561" width="9" style="28"/>
-    <col min="2562" max="2562" width="12.36328125" style="28" customWidth="1"/>
-    <col min="2563" max="2563" width="18.36328125" style="28" customWidth="1"/>
-    <col min="2564" max="2564" width="25.1796875" style="28" customWidth="1"/>
-    <col min="2565" max="2565" width="32.81640625" style="28" customWidth="1"/>
-    <col min="2566" max="2566" width="19.81640625" style="28" customWidth="1"/>
-    <col min="2567" max="2817" width="9" style="28"/>
-    <col min="2818" max="2818" width="12.36328125" style="28" customWidth="1"/>
-    <col min="2819" max="2819" width="18.36328125" style="28" customWidth="1"/>
-    <col min="2820" max="2820" width="25.1796875" style="28" customWidth="1"/>
-    <col min="2821" max="2821" width="32.81640625" style="28" customWidth="1"/>
-    <col min="2822" max="2822" width="19.81640625" style="28" customWidth="1"/>
-    <col min="2823" max="3073" width="9" style="28"/>
-    <col min="3074" max="3074" width="12.36328125" style="28" customWidth="1"/>
-    <col min="3075" max="3075" width="18.36328125" style="28" customWidth="1"/>
-    <col min="3076" max="3076" width="25.1796875" style="28" customWidth="1"/>
-    <col min="3077" max="3077" width="32.81640625" style="28" customWidth="1"/>
-    <col min="3078" max="3078" width="19.81640625" style="28" customWidth="1"/>
-    <col min="3079" max="3329" width="9" style="28"/>
-    <col min="3330" max="3330" width="12.36328125" style="28" customWidth="1"/>
-    <col min="3331" max="3331" width="18.36328125" style="28" customWidth="1"/>
-    <col min="3332" max="3332" width="25.1796875" style="28" customWidth="1"/>
-    <col min="3333" max="3333" width="32.81640625" style="28" customWidth="1"/>
-    <col min="3334" max="3334" width="19.81640625" style="28" customWidth="1"/>
-    <col min="3335" max="3585" width="9" style="28"/>
-    <col min="3586" max="3586" width="12.36328125" style="28" customWidth="1"/>
-    <col min="3587" max="3587" width="18.36328125" style="28" customWidth="1"/>
-    <col min="3588" max="3588" width="25.1796875" style="28" customWidth="1"/>
-    <col min="3589" max="3589" width="32.81640625" style="28" customWidth="1"/>
-    <col min="3590" max="3590" width="19.81640625" style="28" customWidth="1"/>
-    <col min="3591" max="3841" width="9" style="28"/>
-    <col min="3842" max="3842" width="12.36328125" style="28" customWidth="1"/>
-    <col min="3843" max="3843" width="18.36328125" style="28" customWidth="1"/>
-    <col min="3844" max="3844" width="25.1796875" style="28" customWidth="1"/>
-    <col min="3845" max="3845" width="32.81640625" style="28" customWidth="1"/>
-    <col min="3846" max="3846" width="19.81640625" style="28" customWidth="1"/>
-    <col min="3847" max="4097" width="9" style="28"/>
-    <col min="4098" max="4098" width="12.36328125" style="28" customWidth="1"/>
-    <col min="4099" max="4099" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4100" max="4100" width="25.1796875" style="28" customWidth="1"/>
-    <col min="4101" max="4101" width="32.81640625" style="28" customWidth="1"/>
-    <col min="4102" max="4102" width="19.81640625" style="28" customWidth="1"/>
-    <col min="4103" max="4353" width="9" style="28"/>
-    <col min="4354" max="4354" width="12.36328125" style="28" customWidth="1"/>
-    <col min="4355" max="4355" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4356" max="4356" width="25.1796875" style="28" customWidth="1"/>
-    <col min="4357" max="4357" width="32.81640625" style="28" customWidth="1"/>
-    <col min="4358" max="4358" width="19.81640625" style="28" customWidth="1"/>
-    <col min="4359" max="4609" width="9" style="28"/>
-    <col min="4610" max="4610" width="12.36328125" style="28" customWidth="1"/>
-    <col min="4611" max="4611" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4612" max="4612" width="25.1796875" style="28" customWidth="1"/>
-    <col min="4613" max="4613" width="32.81640625" style="28" customWidth="1"/>
-    <col min="4614" max="4614" width="19.81640625" style="28" customWidth="1"/>
-    <col min="4615" max="4865" width="9" style="28"/>
-    <col min="4866" max="4866" width="12.36328125" style="28" customWidth="1"/>
-    <col min="4867" max="4867" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4868" max="4868" width="25.1796875" style="28" customWidth="1"/>
-    <col min="4869" max="4869" width="32.81640625" style="28" customWidth="1"/>
-    <col min="4870" max="4870" width="19.81640625" style="28" customWidth="1"/>
-    <col min="4871" max="5121" width="9" style="28"/>
-    <col min="5122" max="5122" width="12.36328125" style="28" customWidth="1"/>
-    <col min="5123" max="5123" width="18.36328125" style="28" customWidth="1"/>
-    <col min="5124" max="5124" width="25.1796875" style="28" customWidth="1"/>
-    <col min="5125" max="5125" width="32.81640625" style="28" customWidth="1"/>
-    <col min="5126" max="5126" width="19.81640625" style="28" customWidth="1"/>
-    <col min="5127" max="5377" width="9" style="28"/>
-    <col min="5378" max="5378" width="12.36328125" style="28" customWidth="1"/>
-    <col min="5379" max="5379" width="18.36328125" style="28" customWidth="1"/>
-    <col min="5380" max="5380" width="25.1796875" style="28" customWidth="1"/>
-    <col min="5381" max="5381" width="32.81640625" style="28" customWidth="1"/>
-    <col min="5382" max="5382" width="19.81640625" style="28" customWidth="1"/>
-    <col min="5383" max="5633" width="9" style="28"/>
-    <col min="5634" max="5634" width="12.36328125" style="28" customWidth="1"/>
-    <col min="5635" max="5635" width="18.36328125" style="28" customWidth="1"/>
-    <col min="5636" max="5636" width="25.1796875" style="28" customWidth="1"/>
-    <col min="5637" max="5637" width="32.81640625" style="28" customWidth="1"/>
-    <col min="5638" max="5638" width="19.81640625" style="28" customWidth="1"/>
-    <col min="5639" max="5889" width="9" style="28"/>
-    <col min="5890" max="5890" width="12.36328125" style="28" customWidth="1"/>
-    <col min="5891" max="5891" width="18.36328125" style="28" customWidth="1"/>
-    <col min="5892" max="5892" width="25.1796875" style="28" customWidth="1"/>
-    <col min="5893" max="5893" width="32.81640625" style="28" customWidth="1"/>
-    <col min="5894" max="5894" width="19.81640625" style="28" customWidth="1"/>
-    <col min="5895" max="6145" width="9" style="28"/>
-    <col min="6146" max="6146" width="12.36328125" style="28" customWidth="1"/>
-    <col min="6147" max="6147" width="18.36328125" style="28" customWidth="1"/>
-    <col min="6148" max="6148" width="25.1796875" style="28" customWidth="1"/>
-    <col min="6149" max="6149" width="32.81640625" style="28" customWidth="1"/>
-    <col min="6150" max="6150" width="19.81640625" style="28" customWidth="1"/>
-    <col min="6151" max="6401" width="9" style="28"/>
-    <col min="6402" max="6402" width="12.36328125" style="28" customWidth="1"/>
-    <col min="6403" max="6403" width="18.36328125" style="28" customWidth="1"/>
-    <col min="6404" max="6404" width="25.1796875" style="28" customWidth="1"/>
-    <col min="6405" max="6405" width="32.81640625" style="28" customWidth="1"/>
-    <col min="6406" max="6406" width="19.81640625" style="28" customWidth="1"/>
-    <col min="6407" max="6657" width="9" style="28"/>
-    <col min="6658" max="6658" width="12.36328125" style="28" customWidth="1"/>
-    <col min="6659" max="6659" width="18.36328125" style="28" customWidth="1"/>
-    <col min="6660" max="6660" width="25.1796875" style="28" customWidth="1"/>
-    <col min="6661" max="6661" width="32.81640625" style="28" customWidth="1"/>
-    <col min="6662" max="6662" width="19.81640625" style="28" customWidth="1"/>
-    <col min="6663" max="6913" width="9" style="28"/>
-    <col min="6914" max="6914" width="12.36328125" style="28" customWidth="1"/>
-    <col min="6915" max="6915" width="18.36328125" style="28" customWidth="1"/>
-    <col min="6916" max="6916" width="25.1796875" style="28" customWidth="1"/>
-    <col min="6917" max="6917" width="32.81640625" style="28" customWidth="1"/>
-    <col min="6918" max="6918" width="19.81640625" style="28" customWidth="1"/>
-    <col min="6919" max="7169" width="9" style="28"/>
-    <col min="7170" max="7170" width="12.36328125" style="28" customWidth="1"/>
-    <col min="7171" max="7171" width="18.36328125" style="28" customWidth="1"/>
-    <col min="7172" max="7172" width="25.1796875" style="28" customWidth="1"/>
-    <col min="7173" max="7173" width="32.81640625" style="28" customWidth="1"/>
-    <col min="7174" max="7174" width="19.81640625" style="28" customWidth="1"/>
-    <col min="7175" max="7425" width="9" style="28"/>
-    <col min="7426" max="7426" width="12.36328125" style="28" customWidth="1"/>
-    <col min="7427" max="7427" width="18.36328125" style="28" customWidth="1"/>
-    <col min="7428" max="7428" width="25.1796875" style="28" customWidth="1"/>
-    <col min="7429" max="7429" width="32.81640625" style="28" customWidth="1"/>
-    <col min="7430" max="7430" width="19.81640625" style="28" customWidth="1"/>
-    <col min="7431" max="7681" width="9" style="28"/>
-    <col min="7682" max="7682" width="12.36328125" style="28" customWidth="1"/>
-    <col min="7683" max="7683" width="18.36328125" style="28" customWidth="1"/>
-    <col min="7684" max="7684" width="25.1796875" style="28" customWidth="1"/>
-    <col min="7685" max="7685" width="32.81640625" style="28" customWidth="1"/>
-    <col min="7686" max="7686" width="19.81640625" style="28" customWidth="1"/>
-    <col min="7687" max="7937" width="9" style="28"/>
-    <col min="7938" max="7938" width="12.36328125" style="28" customWidth="1"/>
-    <col min="7939" max="7939" width="18.36328125" style="28" customWidth="1"/>
-    <col min="7940" max="7940" width="25.1796875" style="28" customWidth="1"/>
-    <col min="7941" max="7941" width="32.81640625" style="28" customWidth="1"/>
-    <col min="7942" max="7942" width="19.81640625" style="28" customWidth="1"/>
-    <col min="7943" max="8193" width="9" style="28"/>
-    <col min="8194" max="8194" width="12.36328125" style="28" customWidth="1"/>
-    <col min="8195" max="8195" width="18.36328125" style="28" customWidth="1"/>
-    <col min="8196" max="8196" width="25.1796875" style="28" customWidth="1"/>
-    <col min="8197" max="8197" width="32.81640625" style="28" customWidth="1"/>
-    <col min="8198" max="8198" width="19.81640625" style="28" customWidth="1"/>
-    <col min="8199" max="8449" width="9" style="28"/>
-    <col min="8450" max="8450" width="12.36328125" style="28" customWidth="1"/>
-    <col min="8451" max="8451" width="18.36328125" style="28" customWidth="1"/>
-    <col min="8452" max="8452" width="25.1796875" style="28" customWidth="1"/>
-    <col min="8453" max="8453" width="32.81640625" style="28" customWidth="1"/>
-    <col min="8454" max="8454" width="19.81640625" style="28" customWidth="1"/>
-    <col min="8455" max="8705" width="9" style="28"/>
-    <col min="8706" max="8706" width="12.36328125" style="28" customWidth="1"/>
-    <col min="8707" max="8707" width="18.36328125" style="28" customWidth="1"/>
-    <col min="8708" max="8708" width="25.1796875" style="28" customWidth="1"/>
-    <col min="8709" max="8709" width="32.81640625" style="28" customWidth="1"/>
-    <col min="8710" max="8710" width="19.81640625" style="28" customWidth="1"/>
-    <col min="8711" max="8961" width="9" style="28"/>
-    <col min="8962" max="8962" width="12.36328125" style="28" customWidth="1"/>
-    <col min="8963" max="8963" width="18.36328125" style="28" customWidth="1"/>
-    <col min="8964" max="8964" width="25.1796875" style="28" customWidth="1"/>
-    <col min="8965" max="8965" width="32.81640625" style="28" customWidth="1"/>
-    <col min="8966" max="8966" width="19.81640625" style="28" customWidth="1"/>
-    <col min="8967" max="9217" width="9" style="28"/>
-    <col min="9218" max="9218" width="12.36328125" style="28" customWidth="1"/>
-    <col min="9219" max="9219" width="18.36328125" style="28" customWidth="1"/>
-    <col min="9220" max="9220" width="25.1796875" style="28" customWidth="1"/>
-    <col min="9221" max="9221" width="32.81640625" style="28" customWidth="1"/>
-    <col min="9222" max="9222" width="19.81640625" style="28" customWidth="1"/>
-    <col min="9223" max="9473" width="9" style="28"/>
-    <col min="9474" max="9474" width="12.36328125" style="28" customWidth="1"/>
-    <col min="9475" max="9475" width="18.36328125" style="28" customWidth="1"/>
-    <col min="9476" max="9476" width="25.1796875" style="28" customWidth="1"/>
-    <col min="9477" max="9477" width="32.81640625" style="28" customWidth="1"/>
-    <col min="9478" max="9478" width="19.81640625" style="28" customWidth="1"/>
-    <col min="9479" max="9729" width="9" style="28"/>
-    <col min="9730" max="9730" width="12.36328125" style="28" customWidth="1"/>
-    <col min="9731" max="9731" width="18.36328125" style="28" customWidth="1"/>
-    <col min="9732" max="9732" width="25.1796875" style="28" customWidth="1"/>
-    <col min="9733" max="9733" width="32.81640625" style="28" customWidth="1"/>
-    <col min="9734" max="9734" width="19.81640625" style="28" customWidth="1"/>
-    <col min="9735" max="9985" width="9" style="28"/>
-    <col min="9986" max="9986" width="12.36328125" style="28" customWidth="1"/>
-    <col min="9987" max="9987" width="18.36328125" style="28" customWidth="1"/>
-    <col min="9988" max="9988" width="25.1796875" style="28" customWidth="1"/>
-    <col min="9989" max="9989" width="32.81640625" style="28" customWidth="1"/>
-    <col min="9990" max="9990" width="19.81640625" style="28" customWidth="1"/>
-    <col min="9991" max="10241" width="9" style="28"/>
-    <col min="10242" max="10242" width="12.36328125" style="28" customWidth="1"/>
-    <col min="10243" max="10243" width="18.36328125" style="28" customWidth="1"/>
-    <col min="10244" max="10244" width="25.1796875" style="28" customWidth="1"/>
-    <col min="10245" max="10245" width="32.81640625" style="28" customWidth="1"/>
-    <col min="10246" max="10246" width="19.81640625" style="28" customWidth="1"/>
-    <col min="10247" max="10497" width="9" style="28"/>
-    <col min="10498" max="10498" width="12.36328125" style="28" customWidth="1"/>
-    <col min="10499" max="10499" width="18.36328125" style="28" customWidth="1"/>
-    <col min="10500" max="10500" width="25.1796875" style="28" customWidth="1"/>
-    <col min="10501" max="10501" width="32.81640625" style="28" customWidth="1"/>
-    <col min="10502" max="10502" width="19.81640625" style="28" customWidth="1"/>
-    <col min="10503" max="10753" width="9" style="28"/>
-    <col min="10754" max="10754" width="12.36328125" style="28" customWidth="1"/>
-    <col min="10755" max="10755" width="18.36328125" style="28" customWidth="1"/>
-    <col min="10756" max="10756" width="25.1796875" style="28" customWidth="1"/>
-    <col min="10757" max="10757" width="32.81640625" style="28" customWidth="1"/>
-    <col min="10758" max="10758" width="19.81640625" style="28" customWidth="1"/>
-    <col min="10759" max="11009" width="9" style="28"/>
-    <col min="11010" max="11010" width="12.36328125" style="28" customWidth="1"/>
-    <col min="11011" max="11011" width="18.36328125" style="28" customWidth="1"/>
-    <col min="11012" max="11012" width="25.1796875" style="28" customWidth="1"/>
-    <col min="11013" max="11013" width="32.81640625" style="28" customWidth="1"/>
-    <col min="11014" max="11014" width="19.81640625" style="28" customWidth="1"/>
-    <col min="11015" max="11265" width="9" style="28"/>
-    <col min="11266" max="11266" width="12.36328125" style="28" customWidth="1"/>
-    <col min="11267" max="11267" width="18.36328125" style="28" customWidth="1"/>
-    <col min="11268" max="11268" width="25.1796875" style="28" customWidth="1"/>
-    <col min="11269" max="11269" width="32.81640625" style="28" customWidth="1"/>
-    <col min="11270" max="11270" width="19.81640625" style="28" customWidth="1"/>
-    <col min="11271" max="11521" width="9" style="28"/>
-    <col min="11522" max="11522" width="12.36328125" style="28" customWidth="1"/>
-    <col min="11523" max="11523" width="18.36328125" style="28" customWidth="1"/>
-    <col min="11524" max="11524" width="25.1796875" style="28" customWidth="1"/>
-    <col min="11525" max="11525" width="32.81640625" style="28" customWidth="1"/>
-    <col min="11526" max="11526" width="19.81640625" style="28" customWidth="1"/>
-    <col min="11527" max="11777" width="9" style="28"/>
-    <col min="11778" max="11778" width="12.36328125" style="28" customWidth="1"/>
-    <col min="11779" max="11779" width="18.36328125" style="28" customWidth="1"/>
-    <col min="11780" max="11780" width="25.1796875" style="28" customWidth="1"/>
-    <col min="11781" max="11781" width="32.81640625" style="28" customWidth="1"/>
-    <col min="11782" max="11782" width="19.81640625" style="28" customWidth="1"/>
-    <col min="11783" max="12033" width="9" style="28"/>
-    <col min="12034" max="12034" width="12.36328125" style="28" customWidth="1"/>
-    <col min="12035" max="12035" width="18.36328125" style="28" customWidth="1"/>
-    <col min="12036" max="12036" width="25.1796875" style="28" customWidth="1"/>
-    <col min="12037" max="12037" width="32.81640625" style="28" customWidth="1"/>
-    <col min="12038" max="12038" width="19.81640625" style="28" customWidth="1"/>
-    <col min="12039" max="12289" width="9" style="28"/>
-    <col min="12290" max="12290" width="12.36328125" style="28" customWidth="1"/>
-    <col min="12291" max="12291" width="18.36328125" style="28" customWidth="1"/>
-    <col min="12292" max="12292" width="25.1796875" style="28" customWidth="1"/>
-    <col min="12293" max="12293" width="32.81640625" style="28" customWidth="1"/>
-    <col min="12294" max="12294" width="19.81640625" style="28" customWidth="1"/>
-    <col min="12295" max="12545" width="9" style="28"/>
-    <col min="12546" max="12546" width="12.36328125" style="28" customWidth="1"/>
-    <col min="12547" max="12547" width="18.36328125" style="28" customWidth="1"/>
-    <col min="12548" max="12548" width="25.1796875" style="28" customWidth="1"/>
-    <col min="12549" max="12549" width="32.81640625" style="28" customWidth="1"/>
-    <col min="12550" max="12550" width="19.81640625" style="28" customWidth="1"/>
-    <col min="12551" max="12801" width="9" style="28"/>
-    <col min="12802" max="12802" width="12.36328125" style="28" customWidth="1"/>
-    <col min="12803" max="12803" width="18.36328125" style="28" customWidth="1"/>
-    <col min="12804" max="12804" width="25.1796875" style="28" customWidth="1"/>
-    <col min="12805" max="12805" width="32.81640625" style="28" customWidth="1"/>
-    <col min="12806" max="12806" width="19.81640625" style="28" customWidth="1"/>
-    <col min="12807" max="13057" width="9" style="28"/>
-    <col min="13058" max="13058" width="12.36328125" style="28" customWidth="1"/>
-    <col min="13059" max="13059" width="18.36328125" style="28" customWidth="1"/>
-    <col min="13060" max="13060" width="25.1796875" style="28" customWidth="1"/>
-    <col min="13061" max="13061" width="32.81640625" style="28" customWidth="1"/>
-    <col min="13062" max="13062" width="19.81640625" style="28" customWidth="1"/>
-    <col min="13063" max="13313" width="9" style="28"/>
-    <col min="13314" max="13314" width="12.36328125" style="28" customWidth="1"/>
-    <col min="13315" max="13315" width="18.36328125" style="28" customWidth="1"/>
-    <col min="13316" max="13316" width="25.1796875" style="28" customWidth="1"/>
-    <col min="13317" max="13317" width="32.81640625" style="28" customWidth="1"/>
-    <col min="13318" max="13318" width="19.81640625" style="28" customWidth="1"/>
-    <col min="13319" max="13569" width="9" style="28"/>
-    <col min="13570" max="13570" width="12.36328125" style="28" customWidth="1"/>
-    <col min="13571" max="13571" width="18.36328125" style="28" customWidth="1"/>
-    <col min="13572" max="13572" width="25.1796875" style="28" customWidth="1"/>
-    <col min="13573" max="13573" width="32.81640625" style="28" customWidth="1"/>
-    <col min="13574" max="13574" width="19.81640625" style="28" customWidth="1"/>
-    <col min="13575" max="13825" width="9" style="28"/>
-    <col min="13826" max="13826" width="12.36328125" style="28" customWidth="1"/>
-    <col min="13827" max="13827" width="18.36328125" style="28" customWidth="1"/>
-    <col min="13828" max="13828" width="25.1796875" style="28" customWidth="1"/>
-    <col min="13829" max="13829" width="32.81640625" style="28" customWidth="1"/>
-    <col min="13830" max="13830" width="19.81640625" style="28" customWidth="1"/>
-    <col min="13831" max="14081" width="9" style="28"/>
-    <col min="14082" max="14082" width="12.36328125" style="28" customWidth="1"/>
-    <col min="14083" max="14083" width="18.36328125" style="28" customWidth="1"/>
-    <col min="14084" max="14084" width="25.1796875" style="28" customWidth="1"/>
-    <col min="14085" max="14085" width="32.81640625" style="28" customWidth="1"/>
-    <col min="14086" max="14086" width="19.81640625" style="28" customWidth="1"/>
-    <col min="14087" max="14337" width="9" style="28"/>
-    <col min="14338" max="14338" width="12.36328125" style="28" customWidth="1"/>
-    <col min="14339" max="14339" width="18.36328125" style="28" customWidth="1"/>
-    <col min="14340" max="14340" width="25.1796875" style="28" customWidth="1"/>
-    <col min="14341" max="14341" width="32.81640625" style="28" customWidth="1"/>
-    <col min="14342" max="14342" width="19.81640625" style="28" customWidth="1"/>
-    <col min="14343" max="14593" width="9" style="28"/>
-    <col min="14594" max="14594" width="12.36328125" style="28" customWidth="1"/>
-    <col min="14595" max="14595" width="18.36328125" style="28" customWidth="1"/>
-    <col min="14596" max="14596" width="25.1796875" style="28" customWidth="1"/>
-    <col min="14597" max="14597" width="32.81640625" style="28" customWidth="1"/>
-    <col min="14598" max="14598" width="19.81640625" style="28" customWidth="1"/>
-    <col min="14599" max="14849" width="9" style="28"/>
-    <col min="14850" max="14850" width="12.36328125" style="28" customWidth="1"/>
-    <col min="14851" max="14851" width="18.36328125" style="28" customWidth="1"/>
-    <col min="14852" max="14852" width="25.1796875" style="28" customWidth="1"/>
-    <col min="14853" max="14853" width="32.81640625" style="28" customWidth="1"/>
-    <col min="14854" max="14854" width="19.81640625" style="28" customWidth="1"/>
-    <col min="14855" max="15105" width="9" style="28"/>
-    <col min="15106" max="15106" width="12.36328125" style="28" customWidth="1"/>
-    <col min="15107" max="15107" width="18.36328125" style="28" customWidth="1"/>
-    <col min="15108" max="15108" width="25.1796875" style="28" customWidth="1"/>
-    <col min="15109" max="15109" width="32.81640625" style="28" customWidth="1"/>
-    <col min="15110" max="15110" width="19.81640625" style="28" customWidth="1"/>
-    <col min="15111" max="15361" width="9" style="28"/>
-    <col min="15362" max="15362" width="12.36328125" style="28" customWidth="1"/>
-    <col min="15363" max="15363" width="18.36328125" style="28" customWidth="1"/>
-    <col min="15364" max="15364" width="25.1796875" style="28" customWidth="1"/>
-    <col min="15365" max="15365" width="32.81640625" style="28" customWidth="1"/>
-    <col min="15366" max="15366" width="19.81640625" style="28" customWidth="1"/>
-    <col min="15367" max="15617" width="9" style="28"/>
-    <col min="15618" max="15618" width="12.36328125" style="28" customWidth="1"/>
-    <col min="15619" max="15619" width="18.36328125" style="28" customWidth="1"/>
-    <col min="15620" max="15620" width="25.1796875" style="28" customWidth="1"/>
-    <col min="15621" max="15621" width="32.81640625" style="28" customWidth="1"/>
-    <col min="15622" max="15622" width="19.81640625" style="28" customWidth="1"/>
-    <col min="15623" max="15873" width="9" style="28"/>
-    <col min="15874" max="15874" width="12.36328125" style="28" customWidth="1"/>
-    <col min="15875" max="15875" width="18.36328125" style="28" customWidth="1"/>
-    <col min="15876" max="15876" width="25.1796875" style="28" customWidth="1"/>
-    <col min="15877" max="15877" width="32.81640625" style="28" customWidth="1"/>
-    <col min="15878" max="15878" width="19.81640625" style="28" customWidth="1"/>
-    <col min="15879" max="16129" width="9" style="28"/>
-    <col min="16130" max="16130" width="12.36328125" style="28" customWidth="1"/>
-    <col min="16131" max="16131" width="18.36328125" style="28" customWidth="1"/>
-    <col min="16132" max="16132" width="25.1796875" style="28" customWidth="1"/>
-    <col min="16133" max="16133" width="32.81640625" style="28" customWidth="1"/>
-    <col min="16134" max="16134" width="19.81640625" style="28" customWidth="1"/>
-    <col min="16135" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="1.1796875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7" max="257" width="9" style="27"/>
+    <col min="258" max="258" width="12.36328125" style="27" customWidth="1"/>
+    <col min="259" max="259" width="18.36328125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="25.1796875" style="27" customWidth="1"/>
+    <col min="261" max="261" width="32.81640625" style="27" customWidth="1"/>
+    <col min="262" max="262" width="19.81640625" style="27" customWidth="1"/>
+    <col min="263" max="513" width="9" style="27"/>
+    <col min="514" max="514" width="12.36328125" style="27" customWidth="1"/>
+    <col min="515" max="515" width="18.36328125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="25.1796875" style="27" customWidth="1"/>
+    <col min="517" max="517" width="32.81640625" style="27" customWidth="1"/>
+    <col min="518" max="518" width="19.81640625" style="27" customWidth="1"/>
+    <col min="519" max="769" width="9" style="27"/>
+    <col min="770" max="770" width="12.36328125" style="27" customWidth="1"/>
+    <col min="771" max="771" width="18.36328125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="25.1796875" style="27" customWidth="1"/>
+    <col min="773" max="773" width="32.81640625" style="27" customWidth="1"/>
+    <col min="774" max="774" width="19.81640625" style="27" customWidth="1"/>
+    <col min="775" max="1025" width="9" style="27"/>
+    <col min="1026" max="1026" width="12.36328125" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="18.36328125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="25.1796875" style="27" customWidth="1"/>
+    <col min="1029" max="1029" width="32.81640625" style="27" customWidth="1"/>
+    <col min="1030" max="1030" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1031" max="1281" width="9" style="27"/>
+    <col min="1282" max="1282" width="12.36328125" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="18.36328125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="25.1796875" style="27" customWidth="1"/>
+    <col min="1285" max="1285" width="32.81640625" style="27" customWidth="1"/>
+    <col min="1286" max="1286" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1287" max="1537" width="9" style="27"/>
+    <col min="1538" max="1538" width="12.36328125" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="18.36328125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="25.1796875" style="27" customWidth="1"/>
+    <col min="1541" max="1541" width="32.81640625" style="27" customWidth="1"/>
+    <col min="1542" max="1542" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1543" max="1793" width="9" style="27"/>
+    <col min="1794" max="1794" width="12.36328125" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="18.36328125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="25.1796875" style="27" customWidth="1"/>
+    <col min="1797" max="1797" width="32.81640625" style="27" customWidth="1"/>
+    <col min="1798" max="1798" width="19.81640625" style="27" customWidth="1"/>
+    <col min="1799" max="2049" width="9" style="27"/>
+    <col min="2050" max="2050" width="12.36328125" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="18.36328125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="25.1796875" style="27" customWidth="1"/>
+    <col min="2053" max="2053" width="32.81640625" style="27" customWidth="1"/>
+    <col min="2054" max="2054" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2055" max="2305" width="9" style="27"/>
+    <col min="2306" max="2306" width="12.36328125" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="18.36328125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="25.1796875" style="27" customWidth="1"/>
+    <col min="2309" max="2309" width="32.81640625" style="27" customWidth="1"/>
+    <col min="2310" max="2310" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2311" max="2561" width="9" style="27"/>
+    <col min="2562" max="2562" width="12.36328125" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="18.36328125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="25.1796875" style="27" customWidth="1"/>
+    <col min="2565" max="2565" width="32.81640625" style="27" customWidth="1"/>
+    <col min="2566" max="2566" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2567" max="2817" width="9" style="27"/>
+    <col min="2818" max="2818" width="12.36328125" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="18.36328125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="25.1796875" style="27" customWidth="1"/>
+    <col min="2821" max="2821" width="32.81640625" style="27" customWidth="1"/>
+    <col min="2822" max="2822" width="19.81640625" style="27" customWidth="1"/>
+    <col min="2823" max="3073" width="9" style="27"/>
+    <col min="3074" max="3074" width="12.36328125" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="18.36328125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="25.1796875" style="27" customWidth="1"/>
+    <col min="3077" max="3077" width="32.81640625" style="27" customWidth="1"/>
+    <col min="3078" max="3078" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3079" max="3329" width="9" style="27"/>
+    <col min="3330" max="3330" width="12.36328125" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="18.36328125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="25.1796875" style="27" customWidth="1"/>
+    <col min="3333" max="3333" width="32.81640625" style="27" customWidth="1"/>
+    <col min="3334" max="3334" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3335" max="3585" width="9" style="27"/>
+    <col min="3586" max="3586" width="12.36328125" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="18.36328125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="25.1796875" style="27" customWidth="1"/>
+    <col min="3589" max="3589" width="32.81640625" style="27" customWidth="1"/>
+    <col min="3590" max="3590" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3591" max="3841" width="9" style="27"/>
+    <col min="3842" max="3842" width="12.36328125" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="18.36328125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="25.1796875" style="27" customWidth="1"/>
+    <col min="3845" max="3845" width="32.81640625" style="27" customWidth="1"/>
+    <col min="3846" max="3846" width="19.81640625" style="27" customWidth="1"/>
+    <col min="3847" max="4097" width="9" style="27"/>
+    <col min="4098" max="4098" width="12.36328125" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="18.36328125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="25.1796875" style="27" customWidth="1"/>
+    <col min="4101" max="4101" width="32.81640625" style="27" customWidth="1"/>
+    <col min="4102" max="4102" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4103" max="4353" width="9" style="27"/>
+    <col min="4354" max="4354" width="12.36328125" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="18.36328125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="25.1796875" style="27" customWidth="1"/>
+    <col min="4357" max="4357" width="32.81640625" style="27" customWidth="1"/>
+    <col min="4358" max="4358" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4359" max="4609" width="9" style="27"/>
+    <col min="4610" max="4610" width="12.36328125" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="18.36328125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="25.1796875" style="27" customWidth="1"/>
+    <col min="4613" max="4613" width="32.81640625" style="27" customWidth="1"/>
+    <col min="4614" max="4614" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4615" max="4865" width="9" style="27"/>
+    <col min="4866" max="4866" width="12.36328125" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="18.36328125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="25.1796875" style="27" customWidth="1"/>
+    <col min="4869" max="4869" width="32.81640625" style="27" customWidth="1"/>
+    <col min="4870" max="4870" width="19.81640625" style="27" customWidth="1"/>
+    <col min="4871" max="5121" width="9" style="27"/>
+    <col min="5122" max="5122" width="12.36328125" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="18.36328125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="25.1796875" style="27" customWidth="1"/>
+    <col min="5125" max="5125" width="32.81640625" style="27" customWidth="1"/>
+    <col min="5126" max="5126" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5127" max="5377" width="9" style="27"/>
+    <col min="5378" max="5378" width="12.36328125" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="18.36328125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="25.1796875" style="27" customWidth="1"/>
+    <col min="5381" max="5381" width="32.81640625" style="27" customWidth="1"/>
+    <col min="5382" max="5382" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5383" max="5633" width="9" style="27"/>
+    <col min="5634" max="5634" width="12.36328125" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="18.36328125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="25.1796875" style="27" customWidth="1"/>
+    <col min="5637" max="5637" width="32.81640625" style="27" customWidth="1"/>
+    <col min="5638" max="5638" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5639" max="5889" width="9" style="27"/>
+    <col min="5890" max="5890" width="12.36328125" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="18.36328125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="25.1796875" style="27" customWidth="1"/>
+    <col min="5893" max="5893" width="32.81640625" style="27" customWidth="1"/>
+    <col min="5894" max="5894" width="19.81640625" style="27" customWidth="1"/>
+    <col min="5895" max="6145" width="9" style="27"/>
+    <col min="6146" max="6146" width="12.36328125" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="18.36328125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="25.1796875" style="27" customWidth="1"/>
+    <col min="6149" max="6149" width="32.81640625" style="27" customWidth="1"/>
+    <col min="6150" max="6150" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6151" max="6401" width="9" style="27"/>
+    <col min="6402" max="6402" width="12.36328125" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="18.36328125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="25.1796875" style="27" customWidth="1"/>
+    <col min="6405" max="6405" width="32.81640625" style="27" customWidth="1"/>
+    <col min="6406" max="6406" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6407" max="6657" width="9" style="27"/>
+    <col min="6658" max="6658" width="12.36328125" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="18.36328125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="25.1796875" style="27" customWidth="1"/>
+    <col min="6661" max="6661" width="32.81640625" style="27" customWidth="1"/>
+    <col min="6662" max="6662" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6663" max="6913" width="9" style="27"/>
+    <col min="6914" max="6914" width="12.36328125" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="18.36328125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="25.1796875" style="27" customWidth="1"/>
+    <col min="6917" max="6917" width="32.81640625" style="27" customWidth="1"/>
+    <col min="6918" max="6918" width="19.81640625" style="27" customWidth="1"/>
+    <col min="6919" max="7169" width="9" style="27"/>
+    <col min="7170" max="7170" width="12.36328125" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="18.36328125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="25.1796875" style="27" customWidth="1"/>
+    <col min="7173" max="7173" width="32.81640625" style="27" customWidth="1"/>
+    <col min="7174" max="7174" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7175" max="7425" width="9" style="27"/>
+    <col min="7426" max="7426" width="12.36328125" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="18.36328125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="25.1796875" style="27" customWidth="1"/>
+    <col min="7429" max="7429" width="32.81640625" style="27" customWidth="1"/>
+    <col min="7430" max="7430" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7431" max="7681" width="9" style="27"/>
+    <col min="7682" max="7682" width="12.36328125" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="18.36328125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="25.1796875" style="27" customWidth="1"/>
+    <col min="7685" max="7685" width="32.81640625" style="27" customWidth="1"/>
+    <col min="7686" max="7686" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7687" max="7937" width="9" style="27"/>
+    <col min="7938" max="7938" width="12.36328125" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="18.36328125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="25.1796875" style="27" customWidth="1"/>
+    <col min="7941" max="7941" width="32.81640625" style="27" customWidth="1"/>
+    <col min="7942" max="7942" width="19.81640625" style="27" customWidth="1"/>
+    <col min="7943" max="8193" width="9" style="27"/>
+    <col min="8194" max="8194" width="12.36328125" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="18.36328125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="25.1796875" style="27" customWidth="1"/>
+    <col min="8197" max="8197" width="32.81640625" style="27" customWidth="1"/>
+    <col min="8198" max="8198" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8199" max="8449" width="9" style="27"/>
+    <col min="8450" max="8450" width="12.36328125" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="18.36328125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="25.1796875" style="27" customWidth="1"/>
+    <col min="8453" max="8453" width="32.81640625" style="27" customWidth="1"/>
+    <col min="8454" max="8454" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8455" max="8705" width="9" style="27"/>
+    <col min="8706" max="8706" width="12.36328125" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="18.36328125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="25.1796875" style="27" customWidth="1"/>
+    <col min="8709" max="8709" width="32.81640625" style="27" customWidth="1"/>
+    <col min="8710" max="8710" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8711" max="8961" width="9" style="27"/>
+    <col min="8962" max="8962" width="12.36328125" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="18.36328125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="25.1796875" style="27" customWidth="1"/>
+    <col min="8965" max="8965" width="32.81640625" style="27" customWidth="1"/>
+    <col min="8966" max="8966" width="19.81640625" style="27" customWidth="1"/>
+    <col min="8967" max="9217" width="9" style="27"/>
+    <col min="9218" max="9218" width="12.36328125" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="18.36328125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="25.1796875" style="27" customWidth="1"/>
+    <col min="9221" max="9221" width="32.81640625" style="27" customWidth="1"/>
+    <col min="9222" max="9222" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9223" max="9473" width="9" style="27"/>
+    <col min="9474" max="9474" width="12.36328125" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="18.36328125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="25.1796875" style="27" customWidth="1"/>
+    <col min="9477" max="9477" width="32.81640625" style="27" customWidth="1"/>
+    <col min="9478" max="9478" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9479" max="9729" width="9" style="27"/>
+    <col min="9730" max="9730" width="12.36328125" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="18.36328125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="25.1796875" style="27" customWidth="1"/>
+    <col min="9733" max="9733" width="32.81640625" style="27" customWidth="1"/>
+    <col min="9734" max="9734" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9735" max="9985" width="9" style="27"/>
+    <col min="9986" max="9986" width="12.36328125" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="18.36328125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="25.1796875" style="27" customWidth="1"/>
+    <col min="9989" max="9989" width="32.81640625" style="27" customWidth="1"/>
+    <col min="9990" max="9990" width="19.81640625" style="27" customWidth="1"/>
+    <col min="9991" max="10241" width="9" style="27"/>
+    <col min="10242" max="10242" width="12.36328125" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="18.36328125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="25.1796875" style="27" customWidth="1"/>
+    <col min="10245" max="10245" width="32.81640625" style="27" customWidth="1"/>
+    <col min="10246" max="10246" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10247" max="10497" width="9" style="27"/>
+    <col min="10498" max="10498" width="12.36328125" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="18.36328125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="25.1796875" style="27" customWidth="1"/>
+    <col min="10501" max="10501" width="32.81640625" style="27" customWidth="1"/>
+    <col min="10502" max="10502" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10503" max="10753" width="9" style="27"/>
+    <col min="10754" max="10754" width="12.36328125" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="18.36328125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="25.1796875" style="27" customWidth="1"/>
+    <col min="10757" max="10757" width="32.81640625" style="27" customWidth="1"/>
+    <col min="10758" max="10758" width="19.81640625" style="27" customWidth="1"/>
+    <col min="10759" max="11009" width="9" style="27"/>
+    <col min="11010" max="11010" width="12.36328125" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="18.36328125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="25.1796875" style="27" customWidth="1"/>
+    <col min="11013" max="11013" width="32.81640625" style="27" customWidth="1"/>
+    <col min="11014" max="11014" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11015" max="11265" width="9" style="27"/>
+    <col min="11266" max="11266" width="12.36328125" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="18.36328125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="25.1796875" style="27" customWidth="1"/>
+    <col min="11269" max="11269" width="32.81640625" style="27" customWidth="1"/>
+    <col min="11270" max="11270" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11271" max="11521" width="9" style="27"/>
+    <col min="11522" max="11522" width="12.36328125" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="18.36328125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="25.1796875" style="27" customWidth="1"/>
+    <col min="11525" max="11525" width="32.81640625" style="27" customWidth="1"/>
+    <col min="11526" max="11526" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11527" max="11777" width="9" style="27"/>
+    <col min="11778" max="11778" width="12.36328125" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="18.36328125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="25.1796875" style="27" customWidth="1"/>
+    <col min="11781" max="11781" width="32.81640625" style="27" customWidth="1"/>
+    <col min="11782" max="11782" width="19.81640625" style="27" customWidth="1"/>
+    <col min="11783" max="12033" width="9" style="27"/>
+    <col min="12034" max="12034" width="12.36328125" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="18.36328125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="25.1796875" style="27" customWidth="1"/>
+    <col min="12037" max="12037" width="32.81640625" style="27" customWidth="1"/>
+    <col min="12038" max="12038" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12039" max="12289" width="9" style="27"/>
+    <col min="12290" max="12290" width="12.36328125" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="18.36328125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="25.1796875" style="27" customWidth="1"/>
+    <col min="12293" max="12293" width="32.81640625" style="27" customWidth="1"/>
+    <col min="12294" max="12294" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12295" max="12545" width="9" style="27"/>
+    <col min="12546" max="12546" width="12.36328125" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="18.36328125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="25.1796875" style="27" customWidth="1"/>
+    <col min="12549" max="12549" width="32.81640625" style="27" customWidth="1"/>
+    <col min="12550" max="12550" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12551" max="12801" width="9" style="27"/>
+    <col min="12802" max="12802" width="12.36328125" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="18.36328125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="25.1796875" style="27" customWidth="1"/>
+    <col min="12805" max="12805" width="32.81640625" style="27" customWidth="1"/>
+    <col min="12806" max="12806" width="19.81640625" style="27" customWidth="1"/>
+    <col min="12807" max="13057" width="9" style="27"/>
+    <col min="13058" max="13058" width="12.36328125" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="18.36328125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="25.1796875" style="27" customWidth="1"/>
+    <col min="13061" max="13061" width="32.81640625" style="27" customWidth="1"/>
+    <col min="13062" max="13062" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13063" max="13313" width="9" style="27"/>
+    <col min="13314" max="13314" width="12.36328125" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="18.36328125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="25.1796875" style="27" customWidth="1"/>
+    <col min="13317" max="13317" width="32.81640625" style="27" customWidth="1"/>
+    <col min="13318" max="13318" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13319" max="13569" width="9" style="27"/>
+    <col min="13570" max="13570" width="12.36328125" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="18.36328125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="25.1796875" style="27" customWidth="1"/>
+    <col min="13573" max="13573" width="32.81640625" style="27" customWidth="1"/>
+    <col min="13574" max="13574" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13575" max="13825" width="9" style="27"/>
+    <col min="13826" max="13826" width="12.36328125" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="18.36328125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="25.1796875" style="27" customWidth="1"/>
+    <col min="13829" max="13829" width="32.81640625" style="27" customWidth="1"/>
+    <col min="13830" max="13830" width="19.81640625" style="27" customWidth="1"/>
+    <col min="13831" max="14081" width="9" style="27"/>
+    <col min="14082" max="14082" width="12.36328125" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="18.36328125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="25.1796875" style="27" customWidth="1"/>
+    <col min="14085" max="14085" width="32.81640625" style="27" customWidth="1"/>
+    <col min="14086" max="14086" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14087" max="14337" width="9" style="27"/>
+    <col min="14338" max="14338" width="12.36328125" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="18.36328125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="25.1796875" style="27" customWidth="1"/>
+    <col min="14341" max="14341" width="32.81640625" style="27" customWidth="1"/>
+    <col min="14342" max="14342" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14343" max="14593" width="9" style="27"/>
+    <col min="14594" max="14594" width="12.36328125" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="18.36328125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="25.1796875" style="27" customWidth="1"/>
+    <col min="14597" max="14597" width="32.81640625" style="27" customWidth="1"/>
+    <col min="14598" max="14598" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14599" max="14849" width="9" style="27"/>
+    <col min="14850" max="14850" width="12.36328125" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="18.36328125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="25.1796875" style="27" customWidth="1"/>
+    <col min="14853" max="14853" width="32.81640625" style="27" customWidth="1"/>
+    <col min="14854" max="14854" width="19.81640625" style="27" customWidth="1"/>
+    <col min="14855" max="15105" width="9" style="27"/>
+    <col min="15106" max="15106" width="12.36328125" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="18.36328125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="25.1796875" style="27" customWidth="1"/>
+    <col min="15109" max="15109" width="32.81640625" style="27" customWidth="1"/>
+    <col min="15110" max="15110" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15111" max="15361" width="9" style="27"/>
+    <col min="15362" max="15362" width="12.36328125" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="18.36328125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="25.1796875" style="27" customWidth="1"/>
+    <col min="15365" max="15365" width="32.81640625" style="27" customWidth="1"/>
+    <col min="15366" max="15366" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15367" max="15617" width="9" style="27"/>
+    <col min="15618" max="15618" width="12.36328125" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="18.36328125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="25.1796875" style="27" customWidth="1"/>
+    <col min="15621" max="15621" width="32.81640625" style="27" customWidth="1"/>
+    <col min="15622" max="15622" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15623" max="15873" width="9" style="27"/>
+    <col min="15874" max="15874" width="12.36328125" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="18.36328125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="25.1796875" style="27" customWidth="1"/>
+    <col min="15877" max="15877" width="32.81640625" style="27" customWidth="1"/>
+    <col min="15878" max="15878" width="19.81640625" style="27" customWidth="1"/>
+    <col min="15879" max="16129" width="9" style="27"/>
+    <col min="16130" max="16130" width="12.36328125" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="18.36328125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="25.1796875" style="27" customWidth="1"/>
+    <col min="16133" max="16133" width="32.81640625" style="27" customWidth="1"/>
+    <col min="16134" max="16134" width="19.81640625" style="27" customWidth="1"/>
+    <col min="16135" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="6.65" customHeight="1"/>
     <row r="2" spans="2:8">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="2:8" ht="16.5">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" ht="16.5">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="2:8" s="27" customFormat="1" ht="14.5">
-      <c r="B5" s="46" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="2:8" s="26" customFormat="1" ht="14.5">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="2:8" s="27" customFormat="1" ht="14.5">
-      <c r="B6" s="47"/>
-      <c r="C6" s="36" t="s">
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="2:8" s="26" customFormat="1" ht="14.5">
+      <c r="B6" s="54"/>
+      <c r="C6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="2:8" s="27" customFormat="1" ht="14.5">
-      <c r="B7" s="47"/>
-      <c r="C7" s="36" t="s">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:8" s="26" customFormat="1" ht="14.5">
+      <c r="B7" s="54"/>
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="27" customFormat="1" ht="14.5">
-      <c r="B8" s="47"/>
-      <c r="C8" s="36" t="s">
+    <row r="8" spans="2:8" s="26" customFormat="1" ht="14.5">
+      <c r="B8" s="54"/>
+      <c r="C8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="2:8" s="27" customFormat="1" ht="29">
-      <c r="B9" s="48"/>
-      <c r="C9" s="36" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="2:8" s="26" customFormat="1" ht="29">
+      <c r="B9" s="55"/>
+      <c r="C9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="2:8" ht="16.5">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="2:8" ht="16.5">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="47"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="47"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="47"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="29">
-      <c r="B17" s="48"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="2:5" ht="16.5">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="2:5" ht="16.5">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="47"/>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="47"/>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="2:5" ht="16.5">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="2:5" ht="16.5">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="50"/>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="50"/>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="50"/>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="51"/>
+      <c r="C30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21.5" customHeight="1">
-      <c r="B31" s="51"/>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="52"/>
+      <c r="C31" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2728,10 +2940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2752,21 +2964,21 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>77</v>
+      <c r="C2" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="E2" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="15">
       <c r="B3" s="6" t="s">
@@ -2777,12 +2989,12 @@
         <v>53</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:11" ht="15">
       <c r="B4" s="9" t="s">
@@ -2812,7 +3024,7 @@
       <c r="J4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2820,304 +3032,646 @@
       <c r="B5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="52" customHeight="1">
+      <c r="B6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="56" t="s">
+      <c r="C6" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="58" t="s">
+      <c r="J6" s="21"/>
+      <c r="K6" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="52" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="52" customHeight="1">
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="E9" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="E10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="H16" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="I16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
+      <c r="B17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
+      <c r="B18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="1" customFormat="1" ht="79" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="1" customFormat="1" ht="62" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
-      <c r="B8" s="13" t="s">
+      <c r="I20" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
-      <c r="B9" s="61" t="s">
+    </row>
+    <row r="21" spans="2:11" s="1" customFormat="1" ht="72.5">
+      <c r="B21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="56" t="s">
+      <c r="C21" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="1" customFormat="1" ht="72.5">
+      <c r="B22" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="C22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="1" customFormat="1" ht="72.5">
+      <c r="B23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26" t="s">
-        <v>71</v>
+      <c r="C23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="1" customFormat="1" ht="72.5">
+      <c r="B24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="1" customFormat="1" ht="72.5">
+      <c r="B25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="1" customFormat="1" ht="72.5">
+      <c r="B26" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B27" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B28" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B29" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="1" customFormat="1" ht="15.5" thickBot="1">
+      <c r="B30" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3679,7 @@
     <mergeCell ref="F2:K3"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
-  <conditionalFormatting sqref="K5:K20">
+  <conditionalFormatting sqref="K5:K30">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
@@ -3137,8 +3691,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K20" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F30 F9:F16" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K30" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"已通过,未通过,待测试"</formula1>
     </dataValidation>
   </dataValidations>

--- a/开发设计文档/03.测试用例/01组测试用例.xlsx
+++ b/开发设计文档/03.测试用例/01组测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qt\final_system2.0\qt1\开发设计文档\03.测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qt\final_system\开发设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA85689-1A28-47E6-BE06-9968C6A271A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95753D57-2DEC-46D8-AF3E-39E9E2C39AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例分析" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>需求名称</t>
   </si>
@@ -229,6 +229,9 @@
     <t>s1</t>
   </si>
   <si>
+    <t>登录</t>
+  </si>
+  <si>
     <t>s2</t>
   </si>
   <si>
@@ -236,6 +239,12 @@
   </si>
   <si>
     <t>s4</t>
+  </si>
+  <si>
+    <t>在存在聊天内容的情况下，选择工具栏中的保存聊天内容的按钮，以文本的形式保存聊天内容，再通过按钮对聊天内容进行清空。</t>
+  </si>
+  <si>
+    <t>聊天内容能够正常保存和清空</t>
   </si>
   <si>
     <t>待测试</t>
@@ -269,6 +278,14 @@
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
+    <t>聊天</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
     <t>老师、学生与系统管理员可以对考试有不同的操作</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
@@ -277,10 +294,28 @@
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
+    <t>通过老师用户在试题编辑界面创建题目，在试卷编辑界面组合题目完成组卷，在考试控制界面发布考试与结束考试
+通过学生用户在考试界面参与考试，选择正在进行的考试并参与答题，可以在查询界面获取自己的成绩</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师支持选择题/填空题/简答题等题型创建，仅允许修改自己创建的题目， 设置考试时间、课程、总分等基本信息，操作考试表并关联课程ID，从总题库和个人收藏题库选题，操作试题组卷关联表，设置题目序号，也可以将编辑权限分享给其余老师用户；同时可以阅卷，批改学生主观题答案。
+学生仅能参加已选课程的考试，支持所有题型的输入，自动保存学生的答题记录。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统维护</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
     <t>所有的基本表都已存在，管理员有独立的操作界面</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
+    <t>管理员可以登录账号，直接对所有数据进行修改</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
     <t>登录管理员账号，选择不同的表可以完成增删改查，修改和增加账号时同时完成密码加密。</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
@@ -293,299 +328,35 @@
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
-    <t>程朝煜</t>
+    <t>选课</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
-    <t>李欣悦</t>
+    <t>老师授课，学生选课</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
+    <t>老师学生的界面均添加新的功能接口</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师发布课程学习，学生可以选课，学生选择的课程和可以选择的考试相关联</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师发布课程后，学生可以查看课程详情并选课，选择课程后可以查看相应存在的考试。</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
     <t>s5</t>
-  </si>
-  <si>
-    <t>s6</t>
-  </si>
-  <si>
-    <t>s7</t>
-  </si>
-  <si>
-    <t>s8</t>
-  </si>
-  <si>
-    <t>s9</t>
-  </si>
-  <si>
-    <t>s10</t>
-  </si>
-  <si>
-    <t>s11</t>
-  </si>
-  <si>
-    <t>s12</t>
-  </si>
-  <si>
-    <t>s13</t>
-  </si>
-  <si>
-    <t>s14</t>
-  </si>
-  <si>
-    <t>s15</t>
-  </si>
-  <si>
-    <t>s16</t>
-  </si>
-  <si>
-    <t>s17</t>
-  </si>
-  <si>
-    <t>s18</t>
-  </si>
-  <si>
-    <t>s19</t>
-  </si>
-  <si>
-    <t>用户管理</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
-    <t>学生在登录完成后可以使用选课功能</t>
+    <t>老师和学生可以在公共聊天室进行对话，参与不同课程的讨论</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
-    <t>学生账号可以注册登录</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入学生的账号密码，进入系统可以进行选课</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生可以正常查看考试信息</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入学生的账号密码，进入系统查看已参与考试结果</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入界面有考参与试系统、选课系统，之后点击选课可以正常跳转</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生进入界面有考参与试系统、选课系统，之后点击查看考试可以正常跳转</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师可以查看自己教授的课程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师账号可以注册登录</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入老师的账号密码，进入系统查看已发布的教授课程</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师进入界面有课程信息</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20</t>
-  </si>
-  <si>
-    <t>考试参与</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过老师用户在试题编辑界面创建题目，在试卷编辑界面组合题目完成组卷，在考试控制界面发布考试与结束考试</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过学生用户在考试界面参与考试，选择正在进行的考试并参与答题，可以在查询界面获取自己的成绩</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生仅能参加已选课程的考试，支持所有题型的输入，自动保存学生的答题记录。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师支持选择题/填空题/简答题等题型创建，仅允许修改自己创建的题目， 设置考试时间、课程、总分等基本信息，操作考试表并关联课程ID，从总题库和个人收藏题库选题，操作试题组卷关联表，设置题目序号，也可以将编辑权限分享给其余老师用户；同时可以阅卷，批改学生主观题答案。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>s21</t>
-  </si>
-  <si>
-    <t>s22</t>
-  </si>
-  <si>
-    <t>题库管理</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">老师可以创建新题目 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师可以修改题目内容</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师账号可以正常跳转试题系统</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过老师用户在试题编辑界面创建题目。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过老师用户在试题编辑界面修改题目。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师支持选择题/填空题/简答题等题型创建。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师支持选择题/填空题/简答题等题型创建，仅允许修改自己创建的题目，。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>s23</t>
-  </si>
-  <si>
-    <t>s24</t>
-  </si>
-  <si>
-    <t>s25</t>
-  </si>
-  <si>
-    <t>考试管理</t>
-  </si>
-  <si>
-    <t>考试管理</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师用户可以在考试界面创建考试</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>从题库选择题目组卷</t>
-  </si>
-  <si>
-    <t>分享考卷编辑权限</t>
-  </si>
-  <si>
-    <t>阅卷</t>
-  </si>
-  <si>
-    <t>批改主观题</t>
-  </si>
-  <si>
-    <t>成绩分析</t>
-  </si>
-  <si>
-    <t>查看考试成绩详情</t>
-  </si>
-  <si>
-    <t>查看班级成绩统计</t>
-  </si>
-  <si>
-    <t>系统维护</t>
-  </si>
-  <si>
-    <t>手动导入用户数据</t>
-  </si>
-  <si>
-    <t>好友管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-建立好友关系
-</t>
-  </si>
-  <si>
-    <t>聊天系统</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-私聊功能
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-群聊功能
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-统一信息发送
-</t>
-  </si>
-  <si>
-    <t>程管理系统</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-选课管理
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-课程信息管理
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-设置考试时间、课程、总分等基本信息；操作考试表并关联课程ID。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>为组卷完成的考试无法发布，只能继续修改</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>从总题库和个人收藏题库选题；操作试题组卷关联表，设置题目序号。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>组卷完成后可以选择发布考试，学生账号可以相应的查到考试信息开始考试</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理系统</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员账户直接管理使用表格</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>s26</t>
-  </si>
-  <si>
-    <t>老师可以将考卷编辑权限授予其他老师； 操作试卷权限表，标记是否为创建者。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>被分享权限的老师可以正常编辑试卷</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师账号可以正常跳转阅卷界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>为填空题/简答题手动评分；更新学生答题记录表中的得分和批改状态。</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生完成考试后提交答案，老师端可以查看答题信息并批改，所打的分数可以同步到学生端。</t>
+    <t>加入课程聊天室成功，存在聊天内容</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1073,6 +844,21 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1417,7 +1203,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,10 +1282,10 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1508,64 +1294,64 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyBorder="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyBorder="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyBorder="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0">
@@ -1577,7 +1363,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1588,11 +1374,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,28 +1430,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="55" applyFont="1">
@@ -1687,25 +1473,73 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="56" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="56" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="56" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1721,56 +1555,11 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="56" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="56" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="58">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="20% - Accent2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="20% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
@@ -1827,7 +1616,6 @@
     <cellStyle name="Warning Text" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="常规 3" xfId="58" xr:uid="{B2C7BB9E-C456-480F-A4DB-C8A6928F9A5A}"/>
     <cellStyle name="常规_Sheet2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
     <cellStyle name="常规_Sheet3" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
   </cellStyles>
@@ -2164,755 +1952,755 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.1796875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" style="27" customWidth="1"/>
-    <col min="7" max="257" width="9" style="27"/>
-    <col min="258" max="258" width="12.36328125" style="27" customWidth="1"/>
-    <col min="259" max="259" width="18.36328125" style="27" customWidth="1"/>
-    <col min="260" max="260" width="25.1796875" style="27" customWidth="1"/>
-    <col min="261" max="261" width="32.81640625" style="27" customWidth="1"/>
-    <col min="262" max="262" width="19.81640625" style="27" customWidth="1"/>
-    <col min="263" max="513" width="9" style="27"/>
-    <col min="514" max="514" width="12.36328125" style="27" customWidth="1"/>
-    <col min="515" max="515" width="18.36328125" style="27" customWidth="1"/>
-    <col min="516" max="516" width="25.1796875" style="27" customWidth="1"/>
-    <col min="517" max="517" width="32.81640625" style="27" customWidth="1"/>
-    <col min="518" max="518" width="19.81640625" style="27" customWidth="1"/>
-    <col min="519" max="769" width="9" style="27"/>
-    <col min="770" max="770" width="12.36328125" style="27" customWidth="1"/>
-    <col min="771" max="771" width="18.36328125" style="27" customWidth="1"/>
-    <col min="772" max="772" width="25.1796875" style="27" customWidth="1"/>
-    <col min="773" max="773" width="32.81640625" style="27" customWidth="1"/>
-    <col min="774" max="774" width="19.81640625" style="27" customWidth="1"/>
-    <col min="775" max="1025" width="9" style="27"/>
-    <col min="1026" max="1026" width="12.36328125" style="27" customWidth="1"/>
-    <col min="1027" max="1027" width="18.36328125" style="27" customWidth="1"/>
-    <col min="1028" max="1028" width="25.1796875" style="27" customWidth="1"/>
-    <col min="1029" max="1029" width="32.81640625" style="27" customWidth="1"/>
-    <col min="1030" max="1030" width="19.81640625" style="27" customWidth="1"/>
-    <col min="1031" max="1281" width="9" style="27"/>
-    <col min="1282" max="1282" width="12.36328125" style="27" customWidth="1"/>
-    <col min="1283" max="1283" width="18.36328125" style="27" customWidth="1"/>
-    <col min="1284" max="1284" width="25.1796875" style="27" customWidth="1"/>
-    <col min="1285" max="1285" width="32.81640625" style="27" customWidth="1"/>
-    <col min="1286" max="1286" width="19.81640625" style="27" customWidth="1"/>
-    <col min="1287" max="1537" width="9" style="27"/>
-    <col min="1538" max="1538" width="12.36328125" style="27" customWidth="1"/>
-    <col min="1539" max="1539" width="18.36328125" style="27" customWidth="1"/>
-    <col min="1540" max="1540" width="25.1796875" style="27" customWidth="1"/>
-    <col min="1541" max="1541" width="32.81640625" style="27" customWidth="1"/>
-    <col min="1542" max="1542" width="19.81640625" style="27" customWidth="1"/>
-    <col min="1543" max="1793" width="9" style="27"/>
-    <col min="1794" max="1794" width="12.36328125" style="27" customWidth="1"/>
-    <col min="1795" max="1795" width="18.36328125" style="27" customWidth="1"/>
-    <col min="1796" max="1796" width="25.1796875" style="27" customWidth="1"/>
-    <col min="1797" max="1797" width="32.81640625" style="27" customWidth="1"/>
-    <col min="1798" max="1798" width="19.81640625" style="27" customWidth="1"/>
-    <col min="1799" max="2049" width="9" style="27"/>
-    <col min="2050" max="2050" width="12.36328125" style="27" customWidth="1"/>
-    <col min="2051" max="2051" width="18.36328125" style="27" customWidth="1"/>
-    <col min="2052" max="2052" width="25.1796875" style="27" customWidth="1"/>
-    <col min="2053" max="2053" width="32.81640625" style="27" customWidth="1"/>
-    <col min="2054" max="2054" width="19.81640625" style="27" customWidth="1"/>
-    <col min="2055" max="2305" width="9" style="27"/>
-    <col min="2306" max="2306" width="12.36328125" style="27" customWidth="1"/>
-    <col min="2307" max="2307" width="18.36328125" style="27" customWidth="1"/>
-    <col min="2308" max="2308" width="25.1796875" style="27" customWidth="1"/>
-    <col min="2309" max="2309" width="32.81640625" style="27" customWidth="1"/>
-    <col min="2310" max="2310" width="19.81640625" style="27" customWidth="1"/>
-    <col min="2311" max="2561" width="9" style="27"/>
-    <col min="2562" max="2562" width="12.36328125" style="27" customWidth="1"/>
-    <col min="2563" max="2563" width="18.36328125" style="27" customWidth="1"/>
-    <col min="2564" max="2564" width="25.1796875" style="27" customWidth="1"/>
-    <col min="2565" max="2565" width="32.81640625" style="27" customWidth="1"/>
-    <col min="2566" max="2566" width="19.81640625" style="27" customWidth="1"/>
-    <col min="2567" max="2817" width="9" style="27"/>
-    <col min="2818" max="2818" width="12.36328125" style="27" customWidth="1"/>
-    <col min="2819" max="2819" width="18.36328125" style="27" customWidth="1"/>
-    <col min="2820" max="2820" width="25.1796875" style="27" customWidth="1"/>
-    <col min="2821" max="2821" width="32.81640625" style="27" customWidth="1"/>
-    <col min="2822" max="2822" width="19.81640625" style="27" customWidth="1"/>
-    <col min="2823" max="3073" width="9" style="27"/>
-    <col min="3074" max="3074" width="12.36328125" style="27" customWidth="1"/>
-    <col min="3075" max="3075" width="18.36328125" style="27" customWidth="1"/>
-    <col min="3076" max="3076" width="25.1796875" style="27" customWidth="1"/>
-    <col min="3077" max="3077" width="32.81640625" style="27" customWidth="1"/>
-    <col min="3078" max="3078" width="19.81640625" style="27" customWidth="1"/>
-    <col min="3079" max="3329" width="9" style="27"/>
-    <col min="3330" max="3330" width="12.36328125" style="27" customWidth="1"/>
-    <col min="3331" max="3331" width="18.36328125" style="27" customWidth="1"/>
-    <col min="3332" max="3332" width="25.1796875" style="27" customWidth="1"/>
-    <col min="3333" max="3333" width="32.81640625" style="27" customWidth="1"/>
-    <col min="3334" max="3334" width="19.81640625" style="27" customWidth="1"/>
-    <col min="3335" max="3585" width="9" style="27"/>
-    <col min="3586" max="3586" width="12.36328125" style="27" customWidth="1"/>
-    <col min="3587" max="3587" width="18.36328125" style="27" customWidth="1"/>
-    <col min="3588" max="3588" width="25.1796875" style="27" customWidth="1"/>
-    <col min="3589" max="3589" width="32.81640625" style="27" customWidth="1"/>
-    <col min="3590" max="3590" width="19.81640625" style="27" customWidth="1"/>
-    <col min="3591" max="3841" width="9" style="27"/>
-    <col min="3842" max="3842" width="12.36328125" style="27" customWidth="1"/>
-    <col min="3843" max="3843" width="18.36328125" style="27" customWidth="1"/>
-    <col min="3844" max="3844" width="25.1796875" style="27" customWidth="1"/>
-    <col min="3845" max="3845" width="32.81640625" style="27" customWidth="1"/>
-    <col min="3846" max="3846" width="19.81640625" style="27" customWidth="1"/>
-    <col min="3847" max="4097" width="9" style="27"/>
-    <col min="4098" max="4098" width="12.36328125" style="27" customWidth="1"/>
-    <col min="4099" max="4099" width="18.36328125" style="27" customWidth="1"/>
-    <col min="4100" max="4100" width="25.1796875" style="27" customWidth="1"/>
-    <col min="4101" max="4101" width="32.81640625" style="27" customWidth="1"/>
-    <col min="4102" max="4102" width="19.81640625" style="27" customWidth="1"/>
-    <col min="4103" max="4353" width="9" style="27"/>
-    <col min="4354" max="4354" width="12.36328125" style="27" customWidth="1"/>
-    <col min="4355" max="4355" width="18.36328125" style="27" customWidth="1"/>
-    <col min="4356" max="4356" width="25.1796875" style="27" customWidth="1"/>
-    <col min="4357" max="4357" width="32.81640625" style="27" customWidth="1"/>
-    <col min="4358" max="4358" width="19.81640625" style="27" customWidth="1"/>
-    <col min="4359" max="4609" width="9" style="27"/>
-    <col min="4610" max="4610" width="12.36328125" style="27" customWidth="1"/>
-    <col min="4611" max="4611" width="18.36328125" style="27" customWidth="1"/>
-    <col min="4612" max="4612" width="25.1796875" style="27" customWidth="1"/>
-    <col min="4613" max="4613" width="32.81640625" style="27" customWidth="1"/>
-    <col min="4614" max="4614" width="19.81640625" style="27" customWidth="1"/>
-    <col min="4615" max="4865" width="9" style="27"/>
-    <col min="4866" max="4866" width="12.36328125" style="27" customWidth="1"/>
-    <col min="4867" max="4867" width="18.36328125" style="27" customWidth="1"/>
-    <col min="4868" max="4868" width="25.1796875" style="27" customWidth="1"/>
-    <col min="4869" max="4869" width="32.81640625" style="27" customWidth="1"/>
-    <col min="4870" max="4870" width="19.81640625" style="27" customWidth="1"/>
-    <col min="4871" max="5121" width="9" style="27"/>
-    <col min="5122" max="5122" width="12.36328125" style="27" customWidth="1"/>
-    <col min="5123" max="5123" width="18.36328125" style="27" customWidth="1"/>
-    <col min="5124" max="5124" width="25.1796875" style="27" customWidth="1"/>
-    <col min="5125" max="5125" width="32.81640625" style="27" customWidth="1"/>
-    <col min="5126" max="5126" width="19.81640625" style="27" customWidth="1"/>
-    <col min="5127" max="5377" width="9" style="27"/>
-    <col min="5378" max="5378" width="12.36328125" style="27" customWidth="1"/>
-    <col min="5379" max="5379" width="18.36328125" style="27" customWidth="1"/>
-    <col min="5380" max="5380" width="25.1796875" style="27" customWidth="1"/>
-    <col min="5381" max="5381" width="32.81640625" style="27" customWidth="1"/>
-    <col min="5382" max="5382" width="19.81640625" style="27" customWidth="1"/>
-    <col min="5383" max="5633" width="9" style="27"/>
-    <col min="5634" max="5634" width="12.36328125" style="27" customWidth="1"/>
-    <col min="5635" max="5635" width="18.36328125" style="27" customWidth="1"/>
-    <col min="5636" max="5636" width="25.1796875" style="27" customWidth="1"/>
-    <col min="5637" max="5637" width="32.81640625" style="27" customWidth="1"/>
-    <col min="5638" max="5638" width="19.81640625" style="27" customWidth="1"/>
-    <col min="5639" max="5889" width="9" style="27"/>
-    <col min="5890" max="5890" width="12.36328125" style="27" customWidth="1"/>
-    <col min="5891" max="5891" width="18.36328125" style="27" customWidth="1"/>
-    <col min="5892" max="5892" width="25.1796875" style="27" customWidth="1"/>
-    <col min="5893" max="5893" width="32.81640625" style="27" customWidth="1"/>
-    <col min="5894" max="5894" width="19.81640625" style="27" customWidth="1"/>
-    <col min="5895" max="6145" width="9" style="27"/>
-    <col min="6146" max="6146" width="12.36328125" style="27" customWidth="1"/>
-    <col min="6147" max="6147" width="18.36328125" style="27" customWidth="1"/>
-    <col min="6148" max="6148" width="25.1796875" style="27" customWidth="1"/>
-    <col min="6149" max="6149" width="32.81640625" style="27" customWidth="1"/>
-    <col min="6150" max="6150" width="19.81640625" style="27" customWidth="1"/>
-    <col min="6151" max="6401" width="9" style="27"/>
-    <col min="6402" max="6402" width="12.36328125" style="27" customWidth="1"/>
-    <col min="6403" max="6403" width="18.36328125" style="27" customWidth="1"/>
-    <col min="6404" max="6404" width="25.1796875" style="27" customWidth="1"/>
-    <col min="6405" max="6405" width="32.81640625" style="27" customWidth="1"/>
-    <col min="6406" max="6406" width="19.81640625" style="27" customWidth="1"/>
-    <col min="6407" max="6657" width="9" style="27"/>
-    <col min="6658" max="6658" width="12.36328125" style="27" customWidth="1"/>
-    <col min="6659" max="6659" width="18.36328125" style="27" customWidth="1"/>
-    <col min="6660" max="6660" width="25.1796875" style="27" customWidth="1"/>
-    <col min="6661" max="6661" width="32.81640625" style="27" customWidth="1"/>
-    <col min="6662" max="6662" width="19.81640625" style="27" customWidth="1"/>
-    <col min="6663" max="6913" width="9" style="27"/>
-    <col min="6914" max="6914" width="12.36328125" style="27" customWidth="1"/>
-    <col min="6915" max="6915" width="18.36328125" style="27" customWidth="1"/>
-    <col min="6916" max="6916" width="25.1796875" style="27" customWidth="1"/>
-    <col min="6917" max="6917" width="32.81640625" style="27" customWidth="1"/>
-    <col min="6918" max="6918" width="19.81640625" style="27" customWidth="1"/>
-    <col min="6919" max="7169" width="9" style="27"/>
-    <col min="7170" max="7170" width="12.36328125" style="27" customWidth="1"/>
-    <col min="7171" max="7171" width="18.36328125" style="27" customWidth="1"/>
-    <col min="7172" max="7172" width="25.1796875" style="27" customWidth="1"/>
-    <col min="7173" max="7173" width="32.81640625" style="27" customWidth="1"/>
-    <col min="7174" max="7174" width="19.81640625" style="27" customWidth="1"/>
-    <col min="7175" max="7425" width="9" style="27"/>
-    <col min="7426" max="7426" width="12.36328125" style="27" customWidth="1"/>
-    <col min="7427" max="7427" width="18.36328125" style="27" customWidth="1"/>
-    <col min="7428" max="7428" width="25.1796875" style="27" customWidth="1"/>
-    <col min="7429" max="7429" width="32.81640625" style="27" customWidth="1"/>
-    <col min="7430" max="7430" width="19.81640625" style="27" customWidth="1"/>
-    <col min="7431" max="7681" width="9" style="27"/>
-    <col min="7682" max="7682" width="12.36328125" style="27" customWidth="1"/>
-    <col min="7683" max="7683" width="18.36328125" style="27" customWidth="1"/>
-    <col min="7684" max="7684" width="25.1796875" style="27" customWidth="1"/>
-    <col min="7685" max="7685" width="32.81640625" style="27" customWidth="1"/>
-    <col min="7686" max="7686" width="19.81640625" style="27" customWidth="1"/>
-    <col min="7687" max="7937" width="9" style="27"/>
-    <col min="7938" max="7938" width="12.36328125" style="27" customWidth="1"/>
-    <col min="7939" max="7939" width="18.36328125" style="27" customWidth="1"/>
-    <col min="7940" max="7940" width="25.1796875" style="27" customWidth="1"/>
-    <col min="7941" max="7941" width="32.81640625" style="27" customWidth="1"/>
-    <col min="7942" max="7942" width="19.81640625" style="27" customWidth="1"/>
-    <col min="7943" max="8193" width="9" style="27"/>
-    <col min="8194" max="8194" width="12.36328125" style="27" customWidth="1"/>
-    <col min="8195" max="8195" width="18.36328125" style="27" customWidth="1"/>
-    <col min="8196" max="8196" width="25.1796875" style="27" customWidth="1"/>
-    <col min="8197" max="8197" width="32.81640625" style="27" customWidth="1"/>
-    <col min="8198" max="8198" width="19.81640625" style="27" customWidth="1"/>
-    <col min="8199" max="8449" width="9" style="27"/>
-    <col min="8450" max="8450" width="12.36328125" style="27" customWidth="1"/>
-    <col min="8451" max="8451" width="18.36328125" style="27" customWidth="1"/>
-    <col min="8452" max="8452" width="25.1796875" style="27" customWidth="1"/>
-    <col min="8453" max="8453" width="32.81640625" style="27" customWidth="1"/>
-    <col min="8454" max="8454" width="19.81640625" style="27" customWidth="1"/>
-    <col min="8455" max="8705" width="9" style="27"/>
-    <col min="8706" max="8706" width="12.36328125" style="27" customWidth="1"/>
-    <col min="8707" max="8707" width="18.36328125" style="27" customWidth="1"/>
-    <col min="8708" max="8708" width="25.1796875" style="27" customWidth="1"/>
-    <col min="8709" max="8709" width="32.81640625" style="27" customWidth="1"/>
-    <col min="8710" max="8710" width="19.81640625" style="27" customWidth="1"/>
-    <col min="8711" max="8961" width="9" style="27"/>
-    <col min="8962" max="8962" width="12.36328125" style="27" customWidth="1"/>
-    <col min="8963" max="8963" width="18.36328125" style="27" customWidth="1"/>
-    <col min="8964" max="8964" width="25.1796875" style="27" customWidth="1"/>
-    <col min="8965" max="8965" width="32.81640625" style="27" customWidth="1"/>
-    <col min="8966" max="8966" width="19.81640625" style="27" customWidth="1"/>
-    <col min="8967" max="9217" width="9" style="27"/>
-    <col min="9218" max="9218" width="12.36328125" style="27" customWidth="1"/>
-    <col min="9219" max="9219" width="18.36328125" style="27" customWidth="1"/>
-    <col min="9220" max="9220" width="25.1796875" style="27" customWidth="1"/>
-    <col min="9221" max="9221" width="32.81640625" style="27" customWidth="1"/>
-    <col min="9222" max="9222" width="19.81640625" style="27" customWidth="1"/>
-    <col min="9223" max="9473" width="9" style="27"/>
-    <col min="9474" max="9474" width="12.36328125" style="27" customWidth="1"/>
-    <col min="9475" max="9475" width="18.36328125" style="27" customWidth="1"/>
-    <col min="9476" max="9476" width="25.1796875" style="27" customWidth="1"/>
-    <col min="9477" max="9477" width="32.81640625" style="27" customWidth="1"/>
-    <col min="9478" max="9478" width="19.81640625" style="27" customWidth="1"/>
-    <col min="9479" max="9729" width="9" style="27"/>
-    <col min="9730" max="9730" width="12.36328125" style="27" customWidth="1"/>
-    <col min="9731" max="9731" width="18.36328125" style="27" customWidth="1"/>
-    <col min="9732" max="9732" width="25.1796875" style="27" customWidth="1"/>
-    <col min="9733" max="9733" width="32.81640625" style="27" customWidth="1"/>
-    <col min="9734" max="9734" width="19.81640625" style="27" customWidth="1"/>
-    <col min="9735" max="9985" width="9" style="27"/>
-    <col min="9986" max="9986" width="12.36328125" style="27" customWidth="1"/>
-    <col min="9987" max="9987" width="18.36328125" style="27" customWidth="1"/>
-    <col min="9988" max="9988" width="25.1796875" style="27" customWidth="1"/>
-    <col min="9989" max="9989" width="32.81640625" style="27" customWidth="1"/>
-    <col min="9990" max="9990" width="19.81640625" style="27" customWidth="1"/>
-    <col min="9991" max="10241" width="9" style="27"/>
-    <col min="10242" max="10242" width="12.36328125" style="27" customWidth="1"/>
-    <col min="10243" max="10243" width="18.36328125" style="27" customWidth="1"/>
-    <col min="10244" max="10244" width="25.1796875" style="27" customWidth="1"/>
-    <col min="10245" max="10245" width="32.81640625" style="27" customWidth="1"/>
-    <col min="10246" max="10246" width="19.81640625" style="27" customWidth="1"/>
-    <col min="10247" max="10497" width="9" style="27"/>
-    <col min="10498" max="10498" width="12.36328125" style="27" customWidth="1"/>
-    <col min="10499" max="10499" width="18.36328125" style="27" customWidth="1"/>
-    <col min="10500" max="10500" width="25.1796875" style="27" customWidth="1"/>
-    <col min="10501" max="10501" width="32.81640625" style="27" customWidth="1"/>
-    <col min="10502" max="10502" width="19.81640625" style="27" customWidth="1"/>
-    <col min="10503" max="10753" width="9" style="27"/>
-    <col min="10754" max="10754" width="12.36328125" style="27" customWidth="1"/>
-    <col min="10755" max="10755" width="18.36328125" style="27" customWidth="1"/>
-    <col min="10756" max="10756" width="25.1796875" style="27" customWidth="1"/>
-    <col min="10757" max="10757" width="32.81640625" style="27" customWidth="1"/>
-    <col min="10758" max="10758" width="19.81640625" style="27" customWidth="1"/>
-    <col min="10759" max="11009" width="9" style="27"/>
-    <col min="11010" max="11010" width="12.36328125" style="27" customWidth="1"/>
-    <col min="11011" max="11011" width="18.36328125" style="27" customWidth="1"/>
-    <col min="11012" max="11012" width="25.1796875" style="27" customWidth="1"/>
-    <col min="11013" max="11013" width="32.81640625" style="27" customWidth="1"/>
-    <col min="11014" max="11014" width="19.81640625" style="27" customWidth="1"/>
-    <col min="11015" max="11265" width="9" style="27"/>
-    <col min="11266" max="11266" width="12.36328125" style="27" customWidth="1"/>
-    <col min="11267" max="11267" width="18.36328125" style="27" customWidth="1"/>
-    <col min="11268" max="11268" width="25.1796875" style="27" customWidth="1"/>
-    <col min="11269" max="11269" width="32.81640625" style="27" customWidth="1"/>
-    <col min="11270" max="11270" width="19.81640625" style="27" customWidth="1"/>
-    <col min="11271" max="11521" width="9" style="27"/>
-    <col min="11522" max="11522" width="12.36328125" style="27" customWidth="1"/>
-    <col min="11523" max="11523" width="18.36328125" style="27" customWidth="1"/>
-    <col min="11524" max="11524" width="25.1796875" style="27" customWidth="1"/>
-    <col min="11525" max="11525" width="32.81640625" style="27" customWidth="1"/>
-    <col min="11526" max="11526" width="19.81640625" style="27" customWidth="1"/>
-    <col min="11527" max="11777" width="9" style="27"/>
-    <col min="11778" max="11778" width="12.36328125" style="27" customWidth="1"/>
-    <col min="11779" max="11779" width="18.36328125" style="27" customWidth="1"/>
-    <col min="11780" max="11780" width="25.1796875" style="27" customWidth="1"/>
-    <col min="11781" max="11781" width="32.81640625" style="27" customWidth="1"/>
-    <col min="11782" max="11782" width="19.81640625" style="27" customWidth="1"/>
-    <col min="11783" max="12033" width="9" style="27"/>
-    <col min="12034" max="12034" width="12.36328125" style="27" customWidth="1"/>
-    <col min="12035" max="12035" width="18.36328125" style="27" customWidth="1"/>
-    <col min="12036" max="12036" width="25.1796875" style="27" customWidth="1"/>
-    <col min="12037" max="12037" width="32.81640625" style="27" customWidth="1"/>
-    <col min="12038" max="12038" width="19.81640625" style="27" customWidth="1"/>
-    <col min="12039" max="12289" width="9" style="27"/>
-    <col min="12290" max="12290" width="12.36328125" style="27" customWidth="1"/>
-    <col min="12291" max="12291" width="18.36328125" style="27" customWidth="1"/>
-    <col min="12292" max="12292" width="25.1796875" style="27" customWidth="1"/>
-    <col min="12293" max="12293" width="32.81640625" style="27" customWidth="1"/>
-    <col min="12294" max="12294" width="19.81640625" style="27" customWidth="1"/>
-    <col min="12295" max="12545" width="9" style="27"/>
-    <col min="12546" max="12546" width="12.36328125" style="27" customWidth="1"/>
-    <col min="12547" max="12547" width="18.36328125" style="27" customWidth="1"/>
-    <col min="12548" max="12548" width="25.1796875" style="27" customWidth="1"/>
-    <col min="12549" max="12549" width="32.81640625" style="27" customWidth="1"/>
-    <col min="12550" max="12550" width="19.81640625" style="27" customWidth="1"/>
-    <col min="12551" max="12801" width="9" style="27"/>
-    <col min="12802" max="12802" width="12.36328125" style="27" customWidth="1"/>
-    <col min="12803" max="12803" width="18.36328125" style="27" customWidth="1"/>
-    <col min="12804" max="12804" width="25.1796875" style="27" customWidth="1"/>
-    <col min="12805" max="12805" width="32.81640625" style="27" customWidth="1"/>
-    <col min="12806" max="12806" width="19.81640625" style="27" customWidth="1"/>
-    <col min="12807" max="13057" width="9" style="27"/>
-    <col min="13058" max="13058" width="12.36328125" style="27" customWidth="1"/>
-    <col min="13059" max="13059" width="18.36328125" style="27" customWidth="1"/>
-    <col min="13060" max="13060" width="25.1796875" style="27" customWidth="1"/>
-    <col min="13061" max="13061" width="32.81640625" style="27" customWidth="1"/>
-    <col min="13062" max="13062" width="19.81640625" style="27" customWidth="1"/>
-    <col min="13063" max="13313" width="9" style="27"/>
-    <col min="13314" max="13314" width="12.36328125" style="27" customWidth="1"/>
-    <col min="13315" max="13315" width="18.36328125" style="27" customWidth="1"/>
-    <col min="13316" max="13316" width="25.1796875" style="27" customWidth="1"/>
-    <col min="13317" max="13317" width="32.81640625" style="27" customWidth="1"/>
-    <col min="13318" max="13318" width="19.81640625" style="27" customWidth="1"/>
-    <col min="13319" max="13569" width="9" style="27"/>
-    <col min="13570" max="13570" width="12.36328125" style="27" customWidth="1"/>
-    <col min="13571" max="13571" width="18.36328125" style="27" customWidth="1"/>
-    <col min="13572" max="13572" width="25.1796875" style="27" customWidth="1"/>
-    <col min="13573" max="13573" width="32.81640625" style="27" customWidth="1"/>
-    <col min="13574" max="13574" width="19.81640625" style="27" customWidth="1"/>
-    <col min="13575" max="13825" width="9" style="27"/>
-    <col min="13826" max="13826" width="12.36328125" style="27" customWidth="1"/>
-    <col min="13827" max="13827" width="18.36328125" style="27" customWidth="1"/>
-    <col min="13828" max="13828" width="25.1796875" style="27" customWidth="1"/>
-    <col min="13829" max="13829" width="32.81640625" style="27" customWidth="1"/>
-    <col min="13830" max="13830" width="19.81640625" style="27" customWidth="1"/>
-    <col min="13831" max="14081" width="9" style="27"/>
-    <col min="14082" max="14082" width="12.36328125" style="27" customWidth="1"/>
-    <col min="14083" max="14083" width="18.36328125" style="27" customWidth="1"/>
-    <col min="14084" max="14084" width="25.1796875" style="27" customWidth="1"/>
-    <col min="14085" max="14085" width="32.81640625" style="27" customWidth="1"/>
-    <col min="14086" max="14086" width="19.81640625" style="27" customWidth="1"/>
-    <col min="14087" max="14337" width="9" style="27"/>
-    <col min="14338" max="14338" width="12.36328125" style="27" customWidth="1"/>
-    <col min="14339" max="14339" width="18.36328125" style="27" customWidth="1"/>
-    <col min="14340" max="14340" width="25.1796875" style="27" customWidth="1"/>
-    <col min="14341" max="14341" width="32.81640625" style="27" customWidth="1"/>
-    <col min="14342" max="14342" width="19.81640625" style="27" customWidth="1"/>
-    <col min="14343" max="14593" width="9" style="27"/>
-    <col min="14594" max="14594" width="12.36328125" style="27" customWidth="1"/>
-    <col min="14595" max="14595" width="18.36328125" style="27" customWidth="1"/>
-    <col min="14596" max="14596" width="25.1796875" style="27" customWidth="1"/>
-    <col min="14597" max="14597" width="32.81640625" style="27" customWidth="1"/>
-    <col min="14598" max="14598" width="19.81640625" style="27" customWidth="1"/>
-    <col min="14599" max="14849" width="9" style="27"/>
-    <col min="14850" max="14850" width="12.36328125" style="27" customWidth="1"/>
-    <col min="14851" max="14851" width="18.36328125" style="27" customWidth="1"/>
-    <col min="14852" max="14852" width="25.1796875" style="27" customWidth="1"/>
-    <col min="14853" max="14853" width="32.81640625" style="27" customWidth="1"/>
-    <col min="14854" max="14854" width="19.81640625" style="27" customWidth="1"/>
-    <col min="14855" max="15105" width="9" style="27"/>
-    <col min="15106" max="15106" width="12.36328125" style="27" customWidth="1"/>
-    <col min="15107" max="15107" width="18.36328125" style="27" customWidth="1"/>
-    <col min="15108" max="15108" width="25.1796875" style="27" customWidth="1"/>
-    <col min="15109" max="15109" width="32.81640625" style="27" customWidth="1"/>
-    <col min="15110" max="15110" width="19.81640625" style="27" customWidth="1"/>
-    <col min="15111" max="15361" width="9" style="27"/>
-    <col min="15362" max="15362" width="12.36328125" style="27" customWidth="1"/>
-    <col min="15363" max="15363" width="18.36328125" style="27" customWidth="1"/>
-    <col min="15364" max="15364" width="25.1796875" style="27" customWidth="1"/>
-    <col min="15365" max="15365" width="32.81640625" style="27" customWidth="1"/>
-    <col min="15366" max="15366" width="19.81640625" style="27" customWidth="1"/>
-    <col min="15367" max="15617" width="9" style="27"/>
-    <col min="15618" max="15618" width="12.36328125" style="27" customWidth="1"/>
-    <col min="15619" max="15619" width="18.36328125" style="27" customWidth="1"/>
-    <col min="15620" max="15620" width="25.1796875" style="27" customWidth="1"/>
-    <col min="15621" max="15621" width="32.81640625" style="27" customWidth="1"/>
-    <col min="15622" max="15622" width="19.81640625" style="27" customWidth="1"/>
-    <col min="15623" max="15873" width="9" style="27"/>
-    <col min="15874" max="15874" width="12.36328125" style="27" customWidth="1"/>
-    <col min="15875" max="15875" width="18.36328125" style="27" customWidth="1"/>
-    <col min="15876" max="15876" width="25.1796875" style="27" customWidth="1"/>
-    <col min="15877" max="15877" width="32.81640625" style="27" customWidth="1"/>
-    <col min="15878" max="15878" width="19.81640625" style="27" customWidth="1"/>
-    <col min="15879" max="16129" width="9" style="27"/>
-    <col min="16130" max="16130" width="12.36328125" style="27" customWidth="1"/>
-    <col min="16131" max="16131" width="18.36328125" style="27" customWidth="1"/>
-    <col min="16132" max="16132" width="25.1796875" style="27" customWidth="1"/>
-    <col min="16133" max="16133" width="32.81640625" style="27" customWidth="1"/>
-    <col min="16134" max="16134" width="19.81640625" style="27" customWidth="1"/>
-    <col min="16135" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="1.1796875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="28" customWidth="1"/>
+    <col min="7" max="257" width="9" style="28"/>
+    <col min="258" max="258" width="12.36328125" style="28" customWidth="1"/>
+    <col min="259" max="259" width="18.36328125" style="28" customWidth="1"/>
+    <col min="260" max="260" width="25.1796875" style="28" customWidth="1"/>
+    <col min="261" max="261" width="32.81640625" style="28" customWidth="1"/>
+    <col min="262" max="262" width="19.81640625" style="28" customWidth="1"/>
+    <col min="263" max="513" width="9" style="28"/>
+    <col min="514" max="514" width="12.36328125" style="28" customWidth="1"/>
+    <col min="515" max="515" width="18.36328125" style="28" customWidth="1"/>
+    <col min="516" max="516" width="25.1796875" style="28" customWidth="1"/>
+    <col min="517" max="517" width="32.81640625" style="28" customWidth="1"/>
+    <col min="518" max="518" width="19.81640625" style="28" customWidth="1"/>
+    <col min="519" max="769" width="9" style="28"/>
+    <col min="770" max="770" width="12.36328125" style="28" customWidth="1"/>
+    <col min="771" max="771" width="18.36328125" style="28" customWidth="1"/>
+    <col min="772" max="772" width="25.1796875" style="28" customWidth="1"/>
+    <col min="773" max="773" width="32.81640625" style="28" customWidth="1"/>
+    <col min="774" max="774" width="19.81640625" style="28" customWidth="1"/>
+    <col min="775" max="1025" width="9" style="28"/>
+    <col min="1026" max="1026" width="12.36328125" style="28" customWidth="1"/>
+    <col min="1027" max="1027" width="18.36328125" style="28" customWidth="1"/>
+    <col min="1028" max="1028" width="25.1796875" style="28" customWidth="1"/>
+    <col min="1029" max="1029" width="32.81640625" style="28" customWidth="1"/>
+    <col min="1030" max="1030" width="19.81640625" style="28" customWidth="1"/>
+    <col min="1031" max="1281" width="9" style="28"/>
+    <col min="1282" max="1282" width="12.36328125" style="28" customWidth="1"/>
+    <col min="1283" max="1283" width="18.36328125" style="28" customWidth="1"/>
+    <col min="1284" max="1284" width="25.1796875" style="28" customWidth="1"/>
+    <col min="1285" max="1285" width="32.81640625" style="28" customWidth="1"/>
+    <col min="1286" max="1286" width="19.81640625" style="28" customWidth="1"/>
+    <col min="1287" max="1537" width="9" style="28"/>
+    <col min="1538" max="1538" width="12.36328125" style="28" customWidth="1"/>
+    <col min="1539" max="1539" width="18.36328125" style="28" customWidth="1"/>
+    <col min="1540" max="1540" width="25.1796875" style="28" customWidth="1"/>
+    <col min="1541" max="1541" width="32.81640625" style="28" customWidth="1"/>
+    <col min="1542" max="1542" width="19.81640625" style="28" customWidth="1"/>
+    <col min="1543" max="1793" width="9" style="28"/>
+    <col min="1794" max="1794" width="12.36328125" style="28" customWidth="1"/>
+    <col min="1795" max="1795" width="18.36328125" style="28" customWidth="1"/>
+    <col min="1796" max="1796" width="25.1796875" style="28" customWidth="1"/>
+    <col min="1797" max="1797" width="32.81640625" style="28" customWidth="1"/>
+    <col min="1798" max="1798" width="19.81640625" style="28" customWidth="1"/>
+    <col min="1799" max="2049" width="9" style="28"/>
+    <col min="2050" max="2050" width="12.36328125" style="28" customWidth="1"/>
+    <col min="2051" max="2051" width="18.36328125" style="28" customWidth="1"/>
+    <col min="2052" max="2052" width="25.1796875" style="28" customWidth="1"/>
+    <col min="2053" max="2053" width="32.81640625" style="28" customWidth="1"/>
+    <col min="2054" max="2054" width="19.81640625" style="28" customWidth="1"/>
+    <col min="2055" max="2305" width="9" style="28"/>
+    <col min="2306" max="2306" width="12.36328125" style="28" customWidth="1"/>
+    <col min="2307" max="2307" width="18.36328125" style="28" customWidth="1"/>
+    <col min="2308" max="2308" width="25.1796875" style="28" customWidth="1"/>
+    <col min="2309" max="2309" width="32.81640625" style="28" customWidth="1"/>
+    <col min="2310" max="2310" width="19.81640625" style="28" customWidth="1"/>
+    <col min="2311" max="2561" width="9" style="28"/>
+    <col min="2562" max="2562" width="12.36328125" style="28" customWidth="1"/>
+    <col min="2563" max="2563" width="18.36328125" style="28" customWidth="1"/>
+    <col min="2564" max="2564" width="25.1796875" style="28" customWidth="1"/>
+    <col min="2565" max="2565" width="32.81640625" style="28" customWidth="1"/>
+    <col min="2566" max="2566" width="19.81640625" style="28" customWidth="1"/>
+    <col min="2567" max="2817" width="9" style="28"/>
+    <col min="2818" max="2818" width="12.36328125" style="28" customWidth="1"/>
+    <col min="2819" max="2819" width="18.36328125" style="28" customWidth="1"/>
+    <col min="2820" max="2820" width="25.1796875" style="28" customWidth="1"/>
+    <col min="2821" max="2821" width="32.81640625" style="28" customWidth="1"/>
+    <col min="2822" max="2822" width="19.81640625" style="28" customWidth="1"/>
+    <col min="2823" max="3073" width="9" style="28"/>
+    <col min="3074" max="3074" width="12.36328125" style="28" customWidth="1"/>
+    <col min="3075" max="3075" width="18.36328125" style="28" customWidth="1"/>
+    <col min="3076" max="3076" width="25.1796875" style="28" customWidth="1"/>
+    <col min="3077" max="3077" width="32.81640625" style="28" customWidth="1"/>
+    <col min="3078" max="3078" width="19.81640625" style="28" customWidth="1"/>
+    <col min="3079" max="3329" width="9" style="28"/>
+    <col min="3330" max="3330" width="12.36328125" style="28" customWidth="1"/>
+    <col min="3331" max="3331" width="18.36328125" style="28" customWidth="1"/>
+    <col min="3332" max="3332" width="25.1796875" style="28" customWidth="1"/>
+    <col min="3333" max="3333" width="32.81640625" style="28" customWidth="1"/>
+    <col min="3334" max="3334" width="19.81640625" style="28" customWidth="1"/>
+    <col min="3335" max="3585" width="9" style="28"/>
+    <col min="3586" max="3586" width="12.36328125" style="28" customWidth="1"/>
+    <col min="3587" max="3587" width="18.36328125" style="28" customWidth="1"/>
+    <col min="3588" max="3588" width="25.1796875" style="28" customWidth="1"/>
+    <col min="3589" max="3589" width="32.81640625" style="28" customWidth="1"/>
+    <col min="3590" max="3590" width="19.81640625" style="28" customWidth="1"/>
+    <col min="3591" max="3841" width="9" style="28"/>
+    <col min="3842" max="3842" width="12.36328125" style="28" customWidth="1"/>
+    <col min="3843" max="3843" width="18.36328125" style="28" customWidth="1"/>
+    <col min="3844" max="3844" width="25.1796875" style="28" customWidth="1"/>
+    <col min="3845" max="3845" width="32.81640625" style="28" customWidth="1"/>
+    <col min="3846" max="3846" width="19.81640625" style="28" customWidth="1"/>
+    <col min="3847" max="4097" width="9" style="28"/>
+    <col min="4098" max="4098" width="12.36328125" style="28" customWidth="1"/>
+    <col min="4099" max="4099" width="18.36328125" style="28" customWidth="1"/>
+    <col min="4100" max="4100" width="25.1796875" style="28" customWidth="1"/>
+    <col min="4101" max="4101" width="32.81640625" style="28" customWidth="1"/>
+    <col min="4102" max="4102" width="19.81640625" style="28" customWidth="1"/>
+    <col min="4103" max="4353" width="9" style="28"/>
+    <col min="4354" max="4354" width="12.36328125" style="28" customWidth="1"/>
+    <col min="4355" max="4355" width="18.36328125" style="28" customWidth="1"/>
+    <col min="4356" max="4356" width="25.1796875" style="28" customWidth="1"/>
+    <col min="4357" max="4357" width="32.81640625" style="28" customWidth="1"/>
+    <col min="4358" max="4358" width="19.81640625" style="28" customWidth="1"/>
+    <col min="4359" max="4609" width="9" style="28"/>
+    <col min="4610" max="4610" width="12.36328125" style="28" customWidth="1"/>
+    <col min="4611" max="4611" width="18.36328125" style="28" customWidth="1"/>
+    <col min="4612" max="4612" width="25.1796875" style="28" customWidth="1"/>
+    <col min="4613" max="4613" width="32.81640625" style="28" customWidth="1"/>
+    <col min="4614" max="4614" width="19.81640625" style="28" customWidth="1"/>
+    <col min="4615" max="4865" width="9" style="28"/>
+    <col min="4866" max="4866" width="12.36328125" style="28" customWidth="1"/>
+    <col min="4867" max="4867" width="18.36328125" style="28" customWidth="1"/>
+    <col min="4868" max="4868" width="25.1796875" style="28" customWidth="1"/>
+    <col min="4869" max="4869" width="32.81640625" style="28" customWidth="1"/>
+    <col min="4870" max="4870" width="19.81640625" style="28" customWidth="1"/>
+    <col min="4871" max="5121" width="9" style="28"/>
+    <col min="5122" max="5122" width="12.36328125" style="28" customWidth="1"/>
+    <col min="5123" max="5123" width="18.36328125" style="28" customWidth="1"/>
+    <col min="5124" max="5124" width="25.1796875" style="28" customWidth="1"/>
+    <col min="5125" max="5125" width="32.81640625" style="28" customWidth="1"/>
+    <col min="5126" max="5126" width="19.81640625" style="28" customWidth="1"/>
+    <col min="5127" max="5377" width="9" style="28"/>
+    <col min="5378" max="5378" width="12.36328125" style="28" customWidth="1"/>
+    <col min="5379" max="5379" width="18.36328125" style="28" customWidth="1"/>
+    <col min="5380" max="5380" width="25.1796875" style="28" customWidth="1"/>
+    <col min="5381" max="5381" width="32.81640625" style="28" customWidth="1"/>
+    <col min="5382" max="5382" width="19.81640625" style="28" customWidth="1"/>
+    <col min="5383" max="5633" width="9" style="28"/>
+    <col min="5634" max="5634" width="12.36328125" style="28" customWidth="1"/>
+    <col min="5635" max="5635" width="18.36328125" style="28" customWidth="1"/>
+    <col min="5636" max="5636" width="25.1796875" style="28" customWidth="1"/>
+    <col min="5637" max="5637" width="32.81640625" style="28" customWidth="1"/>
+    <col min="5638" max="5638" width="19.81640625" style="28" customWidth="1"/>
+    <col min="5639" max="5889" width="9" style="28"/>
+    <col min="5890" max="5890" width="12.36328125" style="28" customWidth="1"/>
+    <col min="5891" max="5891" width="18.36328125" style="28" customWidth="1"/>
+    <col min="5892" max="5892" width="25.1796875" style="28" customWidth="1"/>
+    <col min="5893" max="5893" width="32.81640625" style="28" customWidth="1"/>
+    <col min="5894" max="5894" width="19.81640625" style="28" customWidth="1"/>
+    <col min="5895" max="6145" width="9" style="28"/>
+    <col min="6146" max="6146" width="12.36328125" style="28" customWidth="1"/>
+    <col min="6147" max="6147" width="18.36328125" style="28" customWidth="1"/>
+    <col min="6148" max="6148" width="25.1796875" style="28" customWidth="1"/>
+    <col min="6149" max="6149" width="32.81640625" style="28" customWidth="1"/>
+    <col min="6150" max="6150" width="19.81640625" style="28" customWidth="1"/>
+    <col min="6151" max="6401" width="9" style="28"/>
+    <col min="6402" max="6402" width="12.36328125" style="28" customWidth="1"/>
+    <col min="6403" max="6403" width="18.36328125" style="28" customWidth="1"/>
+    <col min="6404" max="6404" width="25.1796875" style="28" customWidth="1"/>
+    <col min="6405" max="6405" width="32.81640625" style="28" customWidth="1"/>
+    <col min="6406" max="6406" width="19.81640625" style="28" customWidth="1"/>
+    <col min="6407" max="6657" width="9" style="28"/>
+    <col min="6658" max="6658" width="12.36328125" style="28" customWidth="1"/>
+    <col min="6659" max="6659" width="18.36328125" style="28" customWidth="1"/>
+    <col min="6660" max="6660" width="25.1796875" style="28" customWidth="1"/>
+    <col min="6661" max="6661" width="32.81640625" style="28" customWidth="1"/>
+    <col min="6662" max="6662" width="19.81640625" style="28" customWidth="1"/>
+    <col min="6663" max="6913" width="9" style="28"/>
+    <col min="6914" max="6914" width="12.36328125" style="28" customWidth="1"/>
+    <col min="6915" max="6915" width="18.36328125" style="28" customWidth="1"/>
+    <col min="6916" max="6916" width="25.1796875" style="28" customWidth="1"/>
+    <col min="6917" max="6917" width="32.81640625" style="28" customWidth="1"/>
+    <col min="6918" max="6918" width="19.81640625" style="28" customWidth="1"/>
+    <col min="6919" max="7169" width="9" style="28"/>
+    <col min="7170" max="7170" width="12.36328125" style="28" customWidth="1"/>
+    <col min="7171" max="7171" width="18.36328125" style="28" customWidth="1"/>
+    <col min="7172" max="7172" width="25.1796875" style="28" customWidth="1"/>
+    <col min="7173" max="7173" width="32.81640625" style="28" customWidth="1"/>
+    <col min="7174" max="7174" width="19.81640625" style="28" customWidth="1"/>
+    <col min="7175" max="7425" width="9" style="28"/>
+    <col min="7426" max="7426" width="12.36328125" style="28" customWidth="1"/>
+    <col min="7427" max="7427" width="18.36328125" style="28" customWidth="1"/>
+    <col min="7428" max="7428" width="25.1796875" style="28" customWidth="1"/>
+    <col min="7429" max="7429" width="32.81640625" style="28" customWidth="1"/>
+    <col min="7430" max="7430" width="19.81640625" style="28" customWidth="1"/>
+    <col min="7431" max="7681" width="9" style="28"/>
+    <col min="7682" max="7682" width="12.36328125" style="28" customWidth="1"/>
+    <col min="7683" max="7683" width="18.36328125" style="28" customWidth="1"/>
+    <col min="7684" max="7684" width="25.1796875" style="28" customWidth="1"/>
+    <col min="7685" max="7685" width="32.81640625" style="28" customWidth="1"/>
+    <col min="7686" max="7686" width="19.81640625" style="28" customWidth="1"/>
+    <col min="7687" max="7937" width="9" style="28"/>
+    <col min="7938" max="7938" width="12.36328125" style="28" customWidth="1"/>
+    <col min="7939" max="7939" width="18.36328125" style="28" customWidth="1"/>
+    <col min="7940" max="7940" width="25.1796875" style="28" customWidth="1"/>
+    <col min="7941" max="7941" width="32.81640625" style="28" customWidth="1"/>
+    <col min="7942" max="7942" width="19.81640625" style="28" customWidth="1"/>
+    <col min="7943" max="8193" width="9" style="28"/>
+    <col min="8194" max="8194" width="12.36328125" style="28" customWidth="1"/>
+    <col min="8195" max="8195" width="18.36328125" style="28" customWidth="1"/>
+    <col min="8196" max="8196" width="25.1796875" style="28" customWidth="1"/>
+    <col min="8197" max="8197" width="32.81640625" style="28" customWidth="1"/>
+    <col min="8198" max="8198" width="19.81640625" style="28" customWidth="1"/>
+    <col min="8199" max="8449" width="9" style="28"/>
+    <col min="8450" max="8450" width="12.36328125" style="28" customWidth="1"/>
+    <col min="8451" max="8451" width="18.36328125" style="28" customWidth="1"/>
+    <col min="8452" max="8452" width="25.1796875" style="28" customWidth="1"/>
+    <col min="8453" max="8453" width="32.81640625" style="28" customWidth="1"/>
+    <col min="8454" max="8454" width="19.81640625" style="28" customWidth="1"/>
+    <col min="8455" max="8705" width="9" style="28"/>
+    <col min="8706" max="8706" width="12.36328125" style="28" customWidth="1"/>
+    <col min="8707" max="8707" width="18.36328125" style="28" customWidth="1"/>
+    <col min="8708" max="8708" width="25.1796875" style="28" customWidth="1"/>
+    <col min="8709" max="8709" width="32.81640625" style="28" customWidth="1"/>
+    <col min="8710" max="8710" width="19.81640625" style="28" customWidth="1"/>
+    <col min="8711" max="8961" width="9" style="28"/>
+    <col min="8962" max="8962" width="12.36328125" style="28" customWidth="1"/>
+    <col min="8963" max="8963" width="18.36328125" style="28" customWidth="1"/>
+    <col min="8964" max="8964" width="25.1796875" style="28" customWidth="1"/>
+    <col min="8965" max="8965" width="32.81640625" style="28" customWidth="1"/>
+    <col min="8966" max="8966" width="19.81640625" style="28" customWidth="1"/>
+    <col min="8967" max="9217" width="9" style="28"/>
+    <col min="9218" max="9218" width="12.36328125" style="28" customWidth="1"/>
+    <col min="9219" max="9219" width="18.36328125" style="28" customWidth="1"/>
+    <col min="9220" max="9220" width="25.1796875" style="28" customWidth="1"/>
+    <col min="9221" max="9221" width="32.81640625" style="28" customWidth="1"/>
+    <col min="9222" max="9222" width="19.81640625" style="28" customWidth="1"/>
+    <col min="9223" max="9473" width="9" style="28"/>
+    <col min="9474" max="9474" width="12.36328125" style="28" customWidth="1"/>
+    <col min="9475" max="9475" width="18.36328125" style="28" customWidth="1"/>
+    <col min="9476" max="9476" width="25.1796875" style="28" customWidth="1"/>
+    <col min="9477" max="9477" width="32.81640625" style="28" customWidth="1"/>
+    <col min="9478" max="9478" width="19.81640625" style="28" customWidth="1"/>
+    <col min="9479" max="9729" width="9" style="28"/>
+    <col min="9730" max="9730" width="12.36328125" style="28" customWidth="1"/>
+    <col min="9731" max="9731" width="18.36328125" style="28" customWidth="1"/>
+    <col min="9732" max="9732" width="25.1796875" style="28" customWidth="1"/>
+    <col min="9733" max="9733" width="32.81640625" style="28" customWidth="1"/>
+    <col min="9734" max="9734" width="19.81640625" style="28" customWidth="1"/>
+    <col min="9735" max="9985" width="9" style="28"/>
+    <col min="9986" max="9986" width="12.36328125" style="28" customWidth="1"/>
+    <col min="9987" max="9987" width="18.36328125" style="28" customWidth="1"/>
+    <col min="9988" max="9988" width="25.1796875" style="28" customWidth="1"/>
+    <col min="9989" max="9989" width="32.81640625" style="28" customWidth="1"/>
+    <col min="9990" max="9990" width="19.81640625" style="28" customWidth="1"/>
+    <col min="9991" max="10241" width="9" style="28"/>
+    <col min="10242" max="10242" width="12.36328125" style="28" customWidth="1"/>
+    <col min="10243" max="10243" width="18.36328125" style="28" customWidth="1"/>
+    <col min="10244" max="10244" width="25.1796875" style="28" customWidth="1"/>
+    <col min="10245" max="10245" width="32.81640625" style="28" customWidth="1"/>
+    <col min="10246" max="10246" width="19.81640625" style="28" customWidth="1"/>
+    <col min="10247" max="10497" width="9" style="28"/>
+    <col min="10498" max="10498" width="12.36328125" style="28" customWidth="1"/>
+    <col min="10499" max="10499" width="18.36328125" style="28" customWidth="1"/>
+    <col min="10500" max="10500" width="25.1796875" style="28" customWidth="1"/>
+    <col min="10501" max="10501" width="32.81640625" style="28" customWidth="1"/>
+    <col min="10502" max="10502" width="19.81640625" style="28" customWidth="1"/>
+    <col min="10503" max="10753" width="9" style="28"/>
+    <col min="10754" max="10754" width="12.36328125" style="28" customWidth="1"/>
+    <col min="10755" max="10755" width="18.36328125" style="28" customWidth="1"/>
+    <col min="10756" max="10756" width="25.1796875" style="28" customWidth="1"/>
+    <col min="10757" max="10757" width="32.81640625" style="28" customWidth="1"/>
+    <col min="10758" max="10758" width="19.81640625" style="28" customWidth="1"/>
+    <col min="10759" max="11009" width="9" style="28"/>
+    <col min="11010" max="11010" width="12.36328125" style="28" customWidth="1"/>
+    <col min="11011" max="11011" width="18.36328125" style="28" customWidth="1"/>
+    <col min="11012" max="11012" width="25.1796875" style="28" customWidth="1"/>
+    <col min="11013" max="11013" width="32.81640625" style="28" customWidth="1"/>
+    <col min="11014" max="11014" width="19.81640625" style="28" customWidth="1"/>
+    <col min="11015" max="11265" width="9" style="28"/>
+    <col min="11266" max="11266" width="12.36328125" style="28" customWidth="1"/>
+    <col min="11267" max="11267" width="18.36328125" style="28" customWidth="1"/>
+    <col min="11268" max="11268" width="25.1796875" style="28" customWidth="1"/>
+    <col min="11269" max="11269" width="32.81640625" style="28" customWidth="1"/>
+    <col min="11270" max="11270" width="19.81640625" style="28" customWidth="1"/>
+    <col min="11271" max="11521" width="9" style="28"/>
+    <col min="11522" max="11522" width="12.36328125" style="28" customWidth="1"/>
+    <col min="11523" max="11523" width="18.36328125" style="28" customWidth="1"/>
+    <col min="11524" max="11524" width="25.1796875" style="28" customWidth="1"/>
+    <col min="11525" max="11525" width="32.81640625" style="28" customWidth="1"/>
+    <col min="11526" max="11526" width="19.81640625" style="28" customWidth="1"/>
+    <col min="11527" max="11777" width="9" style="28"/>
+    <col min="11778" max="11778" width="12.36328125" style="28" customWidth="1"/>
+    <col min="11779" max="11779" width="18.36328125" style="28" customWidth="1"/>
+    <col min="11780" max="11780" width="25.1796875" style="28" customWidth="1"/>
+    <col min="11781" max="11781" width="32.81640625" style="28" customWidth="1"/>
+    <col min="11782" max="11782" width="19.81640625" style="28" customWidth="1"/>
+    <col min="11783" max="12033" width="9" style="28"/>
+    <col min="12034" max="12034" width="12.36328125" style="28" customWidth="1"/>
+    <col min="12035" max="12035" width="18.36328125" style="28" customWidth="1"/>
+    <col min="12036" max="12036" width="25.1796875" style="28" customWidth="1"/>
+    <col min="12037" max="12037" width="32.81640625" style="28" customWidth="1"/>
+    <col min="12038" max="12038" width="19.81640625" style="28" customWidth="1"/>
+    <col min="12039" max="12289" width="9" style="28"/>
+    <col min="12290" max="12290" width="12.36328125" style="28" customWidth="1"/>
+    <col min="12291" max="12291" width="18.36328125" style="28" customWidth="1"/>
+    <col min="12292" max="12292" width="25.1796875" style="28" customWidth="1"/>
+    <col min="12293" max="12293" width="32.81640625" style="28" customWidth="1"/>
+    <col min="12294" max="12294" width="19.81640625" style="28" customWidth="1"/>
+    <col min="12295" max="12545" width="9" style="28"/>
+    <col min="12546" max="12546" width="12.36328125" style="28" customWidth="1"/>
+    <col min="12547" max="12547" width="18.36328125" style="28" customWidth="1"/>
+    <col min="12548" max="12548" width="25.1796875" style="28" customWidth="1"/>
+    <col min="12549" max="12549" width="32.81640625" style="28" customWidth="1"/>
+    <col min="12550" max="12550" width="19.81640625" style="28" customWidth="1"/>
+    <col min="12551" max="12801" width="9" style="28"/>
+    <col min="12802" max="12802" width="12.36328125" style="28" customWidth="1"/>
+    <col min="12803" max="12803" width="18.36328125" style="28" customWidth="1"/>
+    <col min="12804" max="12804" width="25.1796875" style="28" customWidth="1"/>
+    <col min="12805" max="12805" width="32.81640625" style="28" customWidth="1"/>
+    <col min="12806" max="12806" width="19.81640625" style="28" customWidth="1"/>
+    <col min="12807" max="13057" width="9" style="28"/>
+    <col min="13058" max="13058" width="12.36328125" style="28" customWidth="1"/>
+    <col min="13059" max="13059" width="18.36328125" style="28" customWidth="1"/>
+    <col min="13060" max="13060" width="25.1796875" style="28" customWidth="1"/>
+    <col min="13061" max="13061" width="32.81640625" style="28" customWidth="1"/>
+    <col min="13062" max="13062" width="19.81640625" style="28" customWidth="1"/>
+    <col min="13063" max="13313" width="9" style="28"/>
+    <col min="13314" max="13314" width="12.36328125" style="28" customWidth="1"/>
+    <col min="13315" max="13315" width="18.36328125" style="28" customWidth="1"/>
+    <col min="13316" max="13316" width="25.1796875" style="28" customWidth="1"/>
+    <col min="13317" max="13317" width="32.81640625" style="28" customWidth="1"/>
+    <col min="13318" max="13318" width="19.81640625" style="28" customWidth="1"/>
+    <col min="13319" max="13569" width="9" style="28"/>
+    <col min="13570" max="13570" width="12.36328125" style="28" customWidth="1"/>
+    <col min="13571" max="13571" width="18.36328125" style="28" customWidth="1"/>
+    <col min="13572" max="13572" width="25.1796875" style="28" customWidth="1"/>
+    <col min="13573" max="13573" width="32.81640625" style="28" customWidth="1"/>
+    <col min="13574" max="13574" width="19.81640625" style="28" customWidth="1"/>
+    <col min="13575" max="13825" width="9" style="28"/>
+    <col min="13826" max="13826" width="12.36328125" style="28" customWidth="1"/>
+    <col min="13827" max="13827" width="18.36328125" style="28" customWidth="1"/>
+    <col min="13828" max="13828" width="25.1796875" style="28" customWidth="1"/>
+    <col min="13829" max="13829" width="32.81640625" style="28" customWidth="1"/>
+    <col min="13830" max="13830" width="19.81640625" style="28" customWidth="1"/>
+    <col min="13831" max="14081" width="9" style="28"/>
+    <col min="14082" max="14082" width="12.36328125" style="28" customWidth="1"/>
+    <col min="14083" max="14083" width="18.36328125" style="28" customWidth="1"/>
+    <col min="14084" max="14084" width="25.1796875" style="28" customWidth="1"/>
+    <col min="14085" max="14085" width="32.81640625" style="28" customWidth="1"/>
+    <col min="14086" max="14086" width="19.81640625" style="28" customWidth="1"/>
+    <col min="14087" max="14337" width="9" style="28"/>
+    <col min="14338" max="14338" width="12.36328125" style="28" customWidth="1"/>
+    <col min="14339" max="14339" width="18.36328125" style="28" customWidth="1"/>
+    <col min="14340" max="14340" width="25.1796875" style="28" customWidth="1"/>
+    <col min="14341" max="14341" width="32.81640625" style="28" customWidth="1"/>
+    <col min="14342" max="14342" width="19.81640625" style="28" customWidth="1"/>
+    <col min="14343" max="14593" width="9" style="28"/>
+    <col min="14594" max="14594" width="12.36328125" style="28" customWidth="1"/>
+    <col min="14595" max="14595" width="18.36328125" style="28" customWidth="1"/>
+    <col min="14596" max="14596" width="25.1796875" style="28" customWidth="1"/>
+    <col min="14597" max="14597" width="32.81640625" style="28" customWidth="1"/>
+    <col min="14598" max="14598" width="19.81640625" style="28" customWidth="1"/>
+    <col min="14599" max="14849" width="9" style="28"/>
+    <col min="14850" max="14850" width="12.36328125" style="28" customWidth="1"/>
+    <col min="14851" max="14851" width="18.36328125" style="28" customWidth="1"/>
+    <col min="14852" max="14852" width="25.1796875" style="28" customWidth="1"/>
+    <col min="14853" max="14853" width="32.81640625" style="28" customWidth="1"/>
+    <col min="14854" max="14854" width="19.81640625" style="28" customWidth="1"/>
+    <col min="14855" max="15105" width="9" style="28"/>
+    <col min="15106" max="15106" width="12.36328125" style="28" customWidth="1"/>
+    <col min="15107" max="15107" width="18.36328125" style="28" customWidth="1"/>
+    <col min="15108" max="15108" width="25.1796875" style="28" customWidth="1"/>
+    <col min="15109" max="15109" width="32.81640625" style="28" customWidth="1"/>
+    <col min="15110" max="15110" width="19.81640625" style="28" customWidth="1"/>
+    <col min="15111" max="15361" width="9" style="28"/>
+    <col min="15362" max="15362" width="12.36328125" style="28" customWidth="1"/>
+    <col min="15363" max="15363" width="18.36328125" style="28" customWidth="1"/>
+    <col min="15364" max="15364" width="25.1796875" style="28" customWidth="1"/>
+    <col min="15365" max="15365" width="32.81640625" style="28" customWidth="1"/>
+    <col min="15366" max="15366" width="19.81640625" style="28" customWidth="1"/>
+    <col min="15367" max="15617" width="9" style="28"/>
+    <col min="15618" max="15618" width="12.36328125" style="28" customWidth="1"/>
+    <col min="15619" max="15619" width="18.36328125" style="28" customWidth="1"/>
+    <col min="15620" max="15620" width="25.1796875" style="28" customWidth="1"/>
+    <col min="15621" max="15621" width="32.81640625" style="28" customWidth="1"/>
+    <col min="15622" max="15622" width="19.81640625" style="28" customWidth="1"/>
+    <col min="15623" max="15873" width="9" style="28"/>
+    <col min="15874" max="15874" width="12.36328125" style="28" customWidth="1"/>
+    <col min="15875" max="15875" width="18.36328125" style="28" customWidth="1"/>
+    <col min="15876" max="15876" width="25.1796875" style="28" customWidth="1"/>
+    <col min="15877" max="15877" width="32.81640625" style="28" customWidth="1"/>
+    <col min="15878" max="15878" width="19.81640625" style="28" customWidth="1"/>
+    <col min="15879" max="16129" width="9" style="28"/>
+    <col min="16130" max="16130" width="12.36328125" style="28" customWidth="1"/>
+    <col min="16131" max="16131" width="18.36328125" style="28" customWidth="1"/>
+    <col min="16132" max="16132" width="25.1796875" style="28" customWidth="1"/>
+    <col min="16133" max="16133" width="32.81640625" style="28" customWidth="1"/>
+    <col min="16134" max="16134" width="19.81640625" style="28" customWidth="1"/>
+    <col min="16135" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="6.65" customHeight="1"/>
     <row r="2" spans="2:8">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="2:8" ht="16.5">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="16.5">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="2:8" s="26" customFormat="1" ht="14.5">
-      <c r="B5" s="53" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="2:8" s="27" customFormat="1" ht="14.5">
+      <c r="B5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="2:8" s="26" customFormat="1" ht="14.5">
-      <c r="B6" s="54"/>
-      <c r="C6" s="35" t="s">
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="2:8" s="27" customFormat="1" ht="14.5">
+      <c r="B6" s="47"/>
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="2:8" s="26" customFormat="1" ht="14.5">
-      <c r="B7" s="54"/>
-      <c r="C7" s="35" t="s">
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="2:8" s="27" customFormat="1" ht="14.5">
+      <c r="B7" s="47"/>
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="26" customFormat="1" ht="14.5">
-      <c r="B8" s="54"/>
-      <c r="C8" s="35" t="s">
+    <row r="8" spans="2:8" s="27" customFormat="1" ht="14.5">
+      <c r="B8" s="47"/>
+      <c r="C8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="2:8" s="26" customFormat="1" ht="29">
-      <c r="B9" s="55"/>
-      <c r="C9" s="35" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:8" s="27" customFormat="1" ht="29">
+      <c r="B9" s="48"/>
+      <c r="C9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="2:8" ht="16.5">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:8" ht="16.5">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="54"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="54"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="54"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="29">
-      <c r="B17" s="55"/>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" ht="16.5">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="2:5" ht="16.5">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="54"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="54"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="2:5" ht="16.5">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="2:5" ht="16.5">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="51"/>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="51"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="51"/>
-      <c r="C30" s="35" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21.5" customHeight="1">
-      <c r="B31" s="52"/>
-      <c r="C31" s="35" t="s">
+      <c r="B31" s="51"/>
+      <c r="C31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="36" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2940,10 +2728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2964,21 +2752,21 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>74</v>
+      <c r="C2" s="59" t="s">
+        <v>77</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="E2" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="2:11" ht="15">
       <c r="B3" s="6" t="s">
@@ -2989,12 +2777,12 @@
         <v>53</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="2:11" ht="15">
       <c r="B4" s="9" t="s">
@@ -3024,7 +2812,7 @@
       <c r="J4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3032,646 +2820,304 @@
       <c r="B5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
+      <c r="B8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
+      <c r="B9" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="G9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="H9" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="52" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="52" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="52" customHeight="1">
-      <c r="B8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B12" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="1" customFormat="1" ht="115.5" customHeight="1">
-      <c r="B16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
-      <c r="B17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="1" customFormat="1" ht="52" customHeight="1">
-      <c r="B18" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="1" customFormat="1" ht="79" customHeight="1">
-      <c r="B19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="1" customFormat="1" ht="62" customHeight="1">
-      <c r="B20" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="1" customFormat="1" ht="72.5">
-      <c r="B21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="1" customFormat="1" ht="72.5">
-      <c r="B22" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="1" customFormat="1" ht="72.5">
-      <c r="B23" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="1" customFormat="1" ht="72.5">
-      <c r="B24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="1" customFormat="1" ht="72.5">
-      <c r="B25" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="1" customFormat="1" ht="72.5">
-      <c r="B26" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B27" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B28" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="1" customFormat="1" ht="15">
-      <c r="B29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="1" customFormat="1" ht="15.5" thickBot="1">
-      <c r="B30" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25" t="s">
-        <v>68</v>
+    </row>
+    <row r="10" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="1" customFormat="1" ht="15">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3679,7 +3125,7 @@
     <mergeCell ref="F2:K3"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
-  <conditionalFormatting sqref="K5:K30">
+  <conditionalFormatting sqref="K5:K20">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
@@ -3691,8 +3137,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F30 F9:F16" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K30" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F20" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"已通过,未通过,待测试"</formula1>
     </dataValidation>
   </dataValidations>
